--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9979662088770517</v>
+      </c>
+      <c r="D3">
         <v>1.000519173538077</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9979662088770517</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.000502491316748</v>
       </c>
-      <c r="F3">
-        <v>1.000519173538077</v>
-      </c>
       <c r="G3">
-        <v>1.001336794104749</v>
+        <v>1.000507354288271</v>
       </c>
       <c r="H3">
         <v>0.9988852763082071</v>
       </c>
       <c r="I3">
-        <v>1.000507354288271</v>
+        <v>1.001336794104749</v>
       </c>
       <c r="J3">
-        <v>0.9979662088770517</v>
+        <v>1.000519173538077</v>
       </c>
       <c r="K3">
         <v>1.000519173538077</v>
@@ -728,7 +680,7 @@
         <v>0.9999528830721841</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9960738555827247</v>
+      </c>
+      <c r="D4">
         <v>1.00100215435149</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9960738555827247</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.000970083766126</v>
       </c>
-      <c r="F4">
-        <v>1.00100215435149</v>
-      </c>
       <c r="G4">
-        <v>1.002580776279932</v>
+        <v>1.000979431247661</v>
       </c>
       <c r="H4">
         <v>0.997848041482815</v>
       </c>
       <c r="I4">
-        <v>1.000979431247661</v>
+        <v>1.002580776279932</v>
       </c>
       <c r="J4">
-        <v>0.9960738555827247</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="K4">
         <v>1.00100215435149</v>
@@ -790,7 +742,7 @@
         <v>0.999909057118458</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9924773028601389</v>
+      </c>
+      <c r="D5">
         <v>1.001918430781018</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9924773028601389</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.001859699549799</v>
       </c>
-      <c r="F5">
-        <v>1.001918430781018</v>
-      </c>
       <c r="G5">
-        <v>1.004948008994659</v>
+        <v>1.001876822011049</v>
       </c>
       <c r="H5">
         <v>0.9958761093306499</v>
       </c>
       <c r="I5">
-        <v>1.001876822011049</v>
+        <v>1.004948008994659</v>
       </c>
       <c r="J5">
-        <v>0.9924773028601389</v>
+        <v>1.001918430781018</v>
       </c>
       <c r="K5">
         <v>1.001918430781018</v>
@@ -828,31 +780,31 @@
         <v>1.001859699549799</v>
       </c>
       <c r="M5">
-        <v>0.9971685012049689</v>
+        <v>0.9971685012049687</v>
       </c>
       <c r="N5">
-        <v>0.9971685012049689</v>
+        <v>0.9971685012049687</v>
       </c>
       <c r="O5">
-        <v>0.9967377039135292</v>
+        <v>0.9967377039135291</v>
       </c>
       <c r="P5">
-        <v>0.9987518110636519</v>
+        <v>0.9987518110636517</v>
       </c>
       <c r="Q5">
-        <v>0.9987518110636519</v>
+        <v>0.9987518110636517</v>
       </c>
       <c r="R5">
-        <v>0.9995434659929934</v>
+        <v>0.9995434659929933</v>
       </c>
       <c r="S5">
-        <v>0.9995434659929934</v>
+        <v>0.9995434659929933</v>
       </c>
       <c r="T5">
-        <v>0.9998260622545524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9998260622545523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9889672911668901</v>
+      </c>
+      <c r="D6">
         <v>1.002812610824961</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.9889672911668901</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.002727936453988</v>
       </c>
-      <c r="F6">
-        <v>1.002812610824961</v>
-      </c>
       <c r="G6">
-        <v>1.007258366876809</v>
+        <v>1.002752630564145</v>
       </c>
       <c r="H6">
         <v>0.9939516044727861</v>
       </c>
       <c r="I6">
-        <v>1.002752630564145</v>
+        <v>1.007258366876809</v>
       </c>
       <c r="J6">
-        <v>0.9889672911668901</v>
+        <v>1.002812610824961</v>
       </c>
       <c r="K6">
         <v>1.002812610824961</v>
@@ -914,7 +866,7 @@
         <v>0.999745073393263</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9998561946130334</v>
+      </c>
+      <c r="D7">
         <v>1.00003507984634</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9998561946130334</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.000036437639962</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1.000036041250462</v>
+      </c>
+      <c r="H7">
+        <v>0.9999205932497658</v>
+      </c>
+      <c r="I7">
+        <v>1.000097421890676</v>
+      </c>
+      <c r="J7">
         <v>1.00003507984634</v>
-      </c>
-      <c r="G7">
-        <v>1.000097421890676</v>
-      </c>
-      <c r="H7">
-        <v>0.9999205932497656</v>
-      </c>
-      <c r="I7">
-        <v>1.000036041250462</v>
-      </c>
-      <c r="J7">
-        <v>0.9998561946130334</v>
       </c>
       <c r="K7">
         <v>1.00003507984634</v>
@@ -976,7 +928,7 @@
         <v>0.9999969614150399</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9996333272564112</v>
+      </c>
+      <c r="D8">
         <v>1.000089636547123</v>
       </c>
-      <c r="D8">
-        <v>0.9996333272564113</v>
-      </c>
       <c r="E8">
+        <v>0.9996333272564112</v>
+      </c>
+      <c r="F8">
         <v>1.000092798967011</v>
       </c>
-      <c r="F8">
-        <v>1.000089636547123</v>
-      </c>
       <c r="G8">
-        <v>1.000248062990082</v>
+        <v>1.000091876400415</v>
       </c>
       <c r="H8">
         <v>0.9997975982453919</v>
       </c>
       <c r="I8">
-        <v>1.000091876400414</v>
+        <v>1.000248062990082</v>
       </c>
       <c r="J8">
-        <v>0.9996333272564113</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="K8">
         <v>1.000089636547123</v>
@@ -1026,19 +978,19 @@
         <v>0.9999385875901819</v>
       </c>
       <c r="Q8">
-        <v>0.9999385875901819</v>
+        <v>0.9999385875901817</v>
       </c>
       <c r="R8">
-        <v>0.9999763498294172</v>
+        <v>0.9999763498294171</v>
       </c>
       <c r="S8">
-        <v>0.9999763498294172</v>
+        <v>0.9999763498294171</v>
       </c>
       <c r="T8">
-        <v>0.9999922167344056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999922167344057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9994862742495573</v>
+      </c>
+      <c r="D9">
         <v>1.000126040956326</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9994862742495573</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.000129761554459</v>
       </c>
-      <c r="F9">
-        <v>1.000126040956326</v>
-      </c>
       <c r="G9">
-        <v>1.000346734840068</v>
+        <v>1.000128675943995</v>
       </c>
       <c r="H9">
         <v>0.9997165906780165</v>
       </c>
       <c r="I9">
-        <v>1.000128675943995</v>
+        <v>1.000346734840068</v>
       </c>
       <c r="J9">
-        <v>0.9994862742495573</v>
+        <v>1.000126040956326</v>
       </c>
       <c r="K9">
         <v>1.000126040956326</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999890130370703</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9988926606350949</v>
+      </c>
+      <c r="D10">
         <v>1.000271163467615</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9988926606350949</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.000279988280974</v>
       </c>
-      <c r="F10">
-        <v>1.000271163467615</v>
-      </c>
       <c r="G10">
-        <v>1.000748313016744</v>
+        <v>1.000277415410405</v>
       </c>
       <c r="H10">
         <v>0.9993889209955235</v>
       </c>
       <c r="I10">
-        <v>1.000277415410405</v>
+        <v>1.000748313016744</v>
       </c>
       <c r="J10">
-        <v>0.9988926606350949</v>
+        <v>1.000271163467615</v>
       </c>
       <c r="K10">
         <v>1.000271163467615</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999764103010594</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.998162365830548</v>
+      </c>
+      <c r="D11">
         <v>1.000451123163031</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.998162365830548</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.00046401300846</v>
       </c>
-      <c r="F11">
-        <v>1.000451123163031</v>
-      </c>
       <c r="G11">
-        <v>1.001239820932686</v>
+        <v>1.00046025758527</v>
       </c>
       <c r="H11">
         <v>0.9989863211045443</v>
       </c>
       <c r="I11">
-        <v>1.00046025758527</v>
+        <v>1.001239820932686</v>
       </c>
       <c r="J11">
-        <v>0.998162365830548</v>
+        <v>1.000451123163031</v>
       </c>
       <c r="K11">
         <v>1.000451123163031</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999606502707565</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.01619378562725</v>
+      </c>
+      <c r="D12">
         <v>0.9961531790010327</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.01619378562725</v>
       </c>
-      <c r="E12">
-        <v>0.9958395349337442</v>
-      </c>
       <c r="F12">
+        <v>0.9958395349337441</v>
+      </c>
+      <c r="G12">
+        <v>0.9959309795480384</v>
+      </c>
+      <c r="H12">
+        <v>1.008979166777253</v>
+      </c>
+      <c r="I12">
+        <v>0.9888456942407716</v>
+      </c>
+      <c r="J12">
         <v>0.9961531790010327</v>
-      </c>
-      <c r="G12">
-        <v>0.9888456942407716</v>
-      </c>
-      <c r="H12">
-        <v>1.008979166777254</v>
-      </c>
-      <c r="I12">
-        <v>0.9959309795480384</v>
-      </c>
-      <c r="J12">
-        <v>1.01619378562725</v>
       </c>
       <c r="K12">
         <v>0.9961531790010327</v>
       </c>
       <c r="L12">
-        <v>0.9958395349337442</v>
+        <v>0.9958395349337441</v>
       </c>
       <c r="M12">
         <v>1.006016660280497</v>
@@ -1286,7 +1238,7 @@
         <v>1.000323723354682</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.004281512278193</v>
+      </c>
+      <c r="D13">
         <v>0.9988435297029158</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.004281512278193</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.9989774543220438</v>
       </c>
-      <c r="F13">
-        <v>0.9988435297029158</v>
-      </c>
       <c r="G13">
-        <v>0.9972987184543198</v>
+        <v>0.9989384095331948</v>
       </c>
       <c r="H13">
         <v>1.002323840243186</v>
       </c>
       <c r="I13">
-        <v>0.9989384095331948</v>
+        <v>0.9972987184543197</v>
       </c>
       <c r="J13">
-        <v>1.004281512278193</v>
+        <v>0.9988435297029158</v>
       </c>
       <c r="K13">
         <v>0.9988435297029158</v>
@@ -1348,7 +1300,7 @@
         <v>1.000110577422309</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.016192791675805</v>
+      </c>
+      <c r="D14">
         <v>0.9961534253400083</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.016192791675805</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.9958397955921674</v>
       </c>
-      <c r="F14">
-        <v>0.9961534253400083</v>
-      </c>
       <c r="G14">
-        <v>0.9888463568737659</v>
+        <v>0.9959312205833203</v>
       </c>
       <c r="H14">
         <v>1.008978614400679</v>
       </c>
       <c r="I14">
-        <v>0.9959312205833203</v>
+        <v>0.9888463568737659</v>
       </c>
       <c r="J14">
-        <v>1.016192791675805</v>
+        <v>0.9961534253400083</v>
       </c>
       <c r="K14">
         <v>0.9961534253400083</v>
@@ -1410,7 +1362,7 @@
         <v>1.000323700744291</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.004281246458286</v>
+      </c>
+      <c r="D15">
         <v>0.9988435949106167</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.004281246458286</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.9989775219174646</v>
       </c>
-      <c r="F15">
-        <v>0.9988435949106167</v>
-      </c>
       <c r="G15">
-        <v>0.9972988951839029</v>
+        <v>0.9989384745812944</v>
       </c>
       <c r="H15">
         <v>1.002323695021608</v>
       </c>
       <c r="I15">
-        <v>0.998938474581294</v>
+        <v>0.9972988951839029</v>
       </c>
       <c r="J15">
-        <v>1.004281246458286</v>
+        <v>0.9988435949106167</v>
       </c>
       <c r="K15">
         <v>0.9988435949106167</v>
@@ -1472,7 +1424,7 @@
         <v>1.000110571345529</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000956107217</v>
+        <v>0.9603494478452225</v>
       </c>
       <c r="D16">
-        <v>0.9999923324773154</v>
+        <v>1.010096338906463</v>
       </c>
       <c r="E16">
-        <v>1.000002452754069</v>
+        <v>0.9603494478452225</v>
       </c>
       <c r="F16">
-        <v>1.000000956107217</v>
+        <v>1.0098105848112</v>
       </c>
       <c r="G16">
-        <v>1.000006821768797</v>
+        <v>1.009893899379124</v>
       </c>
       <c r="H16">
-        <v>0.9999954369816845</v>
+        <v>0.9782583283263097</v>
       </c>
       <c r="I16">
-        <v>1.000002015844742</v>
+        <v>1.026107120792668</v>
       </c>
       <c r="J16">
-        <v>0.9999923324773154</v>
+        <v>1.010096338906463</v>
       </c>
       <c r="K16">
-        <v>1.000000956107217</v>
+        <v>1.010096338906463</v>
       </c>
       <c r="L16">
-        <v>1.000002452754069</v>
+        <v>1.0098105848112</v>
       </c>
       <c r="M16">
-        <v>0.9999973926156921</v>
+        <v>0.9850800163282112</v>
       </c>
       <c r="N16">
-        <v>0.9999973926156921</v>
+        <v>0.9850800163282112</v>
       </c>
       <c r="O16">
-        <v>0.9999967407376896</v>
+        <v>0.9828061203275773</v>
       </c>
       <c r="P16">
-        <v>0.9999985804462002</v>
+        <v>0.9934187905209617</v>
       </c>
       <c r="Q16">
-        <v>0.9999985804462002</v>
+        <v>0.9934187905209617</v>
       </c>
       <c r="R16">
-        <v>0.9999991743614542</v>
+        <v>0.997588177617337</v>
       </c>
       <c r="S16">
-        <v>0.9999991743614542</v>
+        <v>0.997588177617337</v>
       </c>
       <c r="T16">
-        <v>1.000000002655637</v>
+        <v>0.9990859533434978</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000044032291963</v>
+        <v>0.9675952435883178</v>
       </c>
       <c r="D17">
-        <v>0.9998229840661341</v>
+        <v>1.008194982393357</v>
       </c>
       <c r="E17">
-        <v>1.000044379076636</v>
+        <v>0.9675952435883178</v>
       </c>
       <c r="F17">
-        <v>1.000044032291963</v>
+        <v>1.008049083664659</v>
       </c>
       <c r="G17">
-        <v>1.000118405284318</v>
+        <v>1.008091622621339</v>
       </c>
       <c r="H17">
-        <v>0.9999025616811347</v>
+        <v>0.9822111492721796</v>
       </c>
       <c r="I17">
-        <v>1.000044277443791</v>
+        <v>1.021436428124142</v>
       </c>
       <c r="J17">
-        <v>0.9998229840661341</v>
+        <v>1.008194982393357</v>
       </c>
       <c r="K17">
-        <v>1.000044032291963</v>
+        <v>1.008194982393357</v>
       </c>
       <c r="L17">
-        <v>1.000044379076636</v>
+        <v>1.008049083664659</v>
       </c>
       <c r="M17">
-        <v>0.9999336815713848</v>
+        <v>0.9878221636264886</v>
       </c>
       <c r="N17">
-        <v>0.9999336815713848</v>
+        <v>0.9878221636264886</v>
       </c>
       <c r="O17">
-        <v>0.9999233082746347</v>
+        <v>0.9859518255083856</v>
       </c>
       <c r="P17">
-        <v>0.9999704651449109</v>
+        <v>0.9946131032154447</v>
       </c>
       <c r="Q17">
-        <v>0.9999704651449109</v>
+        <v>0.9946131032154447</v>
       </c>
       <c r="R17">
-        <v>0.9999888569316739</v>
+        <v>0.9980085730099226</v>
       </c>
       <c r="S17">
-        <v>0.9999888569316739</v>
+        <v>0.9980085730099226</v>
       </c>
       <c r="T17">
-        <v>0.9999961066406629</v>
+        <v>0.999263084943999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000158529607256</v>
+        <v>0.9821629585498547</v>
       </c>
       <c r="D18">
-        <v>0.9993746272232763</v>
+        <v>1.004375122864948</v>
       </c>
       <c r="E18">
-        <v>1.0001551329021</v>
+        <v>0.9821629585498547</v>
       </c>
       <c r="F18">
-        <v>1.000158529607256</v>
+        <v>1.004506003758615</v>
       </c>
       <c r="G18">
-        <v>1.000413030716101</v>
+        <v>1.004467846276429</v>
       </c>
       <c r="H18">
-        <v>0.9996568307749955</v>
+        <v>0.9901593361187059</v>
       </c>
       <c r="I18">
-        <v>1.000156120289851</v>
+        <v>1.012040944062701</v>
       </c>
       <c r="J18">
-        <v>0.9993746272232763</v>
+        <v>1.004375122864948</v>
       </c>
       <c r="K18">
-        <v>1.000158529607256</v>
+        <v>1.004375122864948</v>
       </c>
       <c r="L18">
-        <v>1.0001551329021</v>
+        <v>1.004506003758615</v>
       </c>
       <c r="M18">
-        <v>0.9997648800626884</v>
+        <v>0.9933344811542346</v>
       </c>
       <c r="N18">
-        <v>0.9997648800626884</v>
+        <v>0.9933344811542346</v>
       </c>
       <c r="O18">
-        <v>0.9997288636334574</v>
+        <v>0.992276099475725</v>
       </c>
       <c r="P18">
-        <v>0.9998960965775444</v>
+        <v>0.9970146950578057</v>
       </c>
       <c r="Q18">
-        <v>0.9998960965775443</v>
+        <v>0.9970146950578057</v>
       </c>
       <c r="R18">
-        <v>0.9999617048349723</v>
+        <v>0.9988548020095913</v>
       </c>
       <c r="S18">
-        <v>0.9999617048349723</v>
+        <v>0.9988548020095913</v>
       </c>
       <c r="T18">
-        <v>0.99998571191893</v>
+        <v>0.9996187019385423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9805488172993596</v>
+      </c>
+      <c r="D19">
+        <v>1.004743439584665</v>
+      </c>
+      <c r="E19">
+        <v>0.9805488172993596</v>
+      </c>
+      <c r="F19">
+        <v>1.004929103146192</v>
+      </c>
+      <c r="G19">
+        <v>1.004874970844589</v>
+      </c>
+      <c r="H19">
+        <v>0.9892588837860263</v>
+      </c>
+      <c r="I19">
+        <v>1.013179640888713</v>
+      </c>
+      <c r="J19">
+        <v>1.004743439584665</v>
+      </c>
+      <c r="K19">
+        <v>1.004743439584665</v>
+      </c>
+      <c r="L19">
+        <v>1.004929103146192</v>
+      </c>
+      <c r="M19">
+        <v>0.9927389602227759</v>
+      </c>
+      <c r="N19">
+        <v>0.9927389602227759</v>
+      </c>
+      <c r="O19">
+        <v>0.9915789347438594</v>
+      </c>
+      <c r="P19">
+        <v>0.9967404533434058</v>
+      </c>
+      <c r="Q19">
+        <v>0.9967404533434058</v>
+      </c>
+      <c r="R19">
+        <v>0.9987411999037206</v>
+      </c>
+      <c r="S19">
+        <v>0.9987411999037206</v>
+      </c>
+      <c r="T19">
+        <v>0.9995891425915908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999923324773154</v>
+      </c>
+      <c r="D20">
+        <v>1.000000956107217</v>
+      </c>
+      <c r="E20">
+        <v>0.9999923324773154</v>
+      </c>
+      <c r="F20">
+        <v>1.000002452754069</v>
+      </c>
+      <c r="G20">
+        <v>1.000002015844742</v>
+      </c>
+      <c r="H20">
+        <v>0.9999954369816845</v>
+      </c>
+      <c r="I20">
+        <v>1.000006821768797</v>
+      </c>
+      <c r="J20">
+        <v>1.000000956107217</v>
+      </c>
+      <c r="K20">
+        <v>1.000000956107217</v>
+      </c>
+      <c r="L20">
+        <v>1.000002452754069</v>
+      </c>
+      <c r="M20">
+        <v>0.9999973926156921</v>
+      </c>
+      <c r="N20">
+        <v>0.9999973926156921</v>
+      </c>
+      <c r="O20">
+        <v>0.9999967407376896</v>
+      </c>
+      <c r="P20">
+        <v>0.9999985804462002</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999985804462002</v>
+      </c>
+      <c r="R20">
+        <v>0.9999991743614542</v>
+      </c>
+      <c r="S20">
+        <v>0.9999991743614542</v>
+      </c>
+      <c r="T20">
+        <v>1.000000002655637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998229840661341</v>
+      </c>
+      <c r="D21">
+        <v>1.000044032291963</v>
+      </c>
+      <c r="E21">
+        <v>0.9998229840661341</v>
+      </c>
+      <c r="F21">
+        <v>1.000044379076635</v>
+      </c>
+      <c r="G21">
+        <v>1.000044277443791</v>
+      </c>
+      <c r="H21">
+        <v>0.9999025616811347</v>
+      </c>
+      <c r="I21">
+        <v>1.000118405284319</v>
+      </c>
+      <c r="J21">
+        <v>1.000044032291963</v>
+      </c>
+      <c r="K21">
+        <v>1.000044032291963</v>
+      </c>
+      <c r="L21">
+        <v>1.000044379076635</v>
+      </c>
+      <c r="M21">
+        <v>0.9999336815713847</v>
+      </c>
+      <c r="N21">
+        <v>0.9999336815713847</v>
+      </c>
+      <c r="O21">
+        <v>0.9999233082746347</v>
+      </c>
+      <c r="P21">
+        <v>0.9999704651449108</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999704651449108</v>
+      </c>
+      <c r="R21">
+        <v>0.9999888569316739</v>
+      </c>
+      <c r="S21">
+        <v>0.9999888569316739</v>
+      </c>
+      <c r="T21">
+        <v>0.9999961066406629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9993746272232763</v>
+      </c>
+      <c r="D22">
+        <v>1.000158529607256</v>
+      </c>
+      <c r="E22">
+        <v>0.9993746272232763</v>
+      </c>
+      <c r="F22">
+        <v>1.0001551329021</v>
+      </c>
+      <c r="G22">
+        <v>1.000156120289851</v>
+      </c>
+      <c r="H22">
+        <v>0.9996568307749955</v>
+      </c>
+      <c r="I22">
+        <v>1.000413030716101</v>
+      </c>
+      <c r="J22">
+        <v>1.000158529607256</v>
+      </c>
+      <c r="K22">
+        <v>1.000158529607256</v>
+      </c>
+      <c r="L22">
+        <v>1.0001551329021</v>
+      </c>
+      <c r="M22">
+        <v>0.9997648800626884</v>
+      </c>
+      <c r="N22">
+        <v>0.9997648800626884</v>
+      </c>
+      <c r="O22">
+        <v>0.9997288636334574</v>
+      </c>
+      <c r="P22">
+        <v>0.9998960965775444</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998960965775443</v>
+      </c>
+      <c r="R22">
+        <v>0.9999617048349723</v>
+      </c>
+      <c r="S22">
+        <v>0.9999617048349723</v>
+      </c>
+      <c r="T22">
+        <v>0.99998571191893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9985326710935722</v>
+      </c>
+      <c r="D23">
         <v>1.000375061408892</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>0.9985326710935722</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>1.000362259900161</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.000365992608946</v>
+      </c>
+      <c r="H23">
+        <v>0.9991959288129899</v>
+      </c>
+      <c r="I23">
+        <v>1.000963586469181</v>
+      </c>
+      <c r="J23">
         <v>1.000375061408892</v>
       </c>
-      <c r="G19">
-        <v>1.000963586469181</v>
-      </c>
-      <c r="H19">
-        <v>0.9991959288129899</v>
-      </c>
-      <c r="I19">
-        <v>1.000365992608946</v>
-      </c>
-      <c r="J19">
-        <v>0.9985326710935722</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000375061408892</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000362259900161</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9994474654968667</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9994474654968667</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9993636199355743</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997566641342086</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9997566641342086</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999112634528795</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999112634528795</v>
       </c>
-      <c r="T19">
-        <v>0.9999659167156238</v>
+      <c r="T23">
+        <v>0.9999659167156237</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9979662088770517</v>
+        <v>0.9788724654106628</v>
       </c>
       <c r="D3">
-        <v>1.000519173538077</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="E3">
-        <v>0.9979662088770517</v>
+        <v>0.9788724654106628</v>
       </c>
       <c r="F3">
-        <v>1.000502491316748</v>
+        <v>1.005335904625357</v>
       </c>
       <c r="G3">
-        <v>1.000507354288271</v>
+        <v>1.005291805576372</v>
       </c>
       <c r="H3">
-        <v>0.9988852763082071</v>
+        <v>0.9883448500072065</v>
       </c>
       <c r="I3">
-        <v>1.001336794104749</v>
+        <v>1.014257897226226</v>
       </c>
       <c r="J3">
-        <v>1.000519173538077</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="K3">
-        <v>1.000519173538077</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="L3">
-        <v>1.000502491316748</v>
+        <v>1.005335904625357</v>
       </c>
       <c r="M3">
-        <v>0.9992343500969001</v>
+        <v>0.9921041850180099</v>
       </c>
       <c r="N3">
-        <v>0.9992343500969001</v>
+        <v>0.9921041850180099</v>
       </c>
       <c r="O3">
-        <v>0.9991179921673358</v>
+        <v>0.9908510733477421</v>
       </c>
       <c r="P3">
-        <v>0.9996626245772925</v>
+        <v>0.9964643386623434</v>
       </c>
       <c r="Q3">
-        <v>0.9996626245772925</v>
+        <v>0.9964643386623432</v>
       </c>
       <c r="R3">
-        <v>0.9998767618174886</v>
+        <v>0.99864441548451</v>
       </c>
       <c r="S3">
-        <v>0.9998767618174886</v>
+        <v>0.99864441548451</v>
       </c>
       <c r="T3">
-        <v>0.9999528830721841</v>
+        <v>0.9995479281328058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9960738555827247</v>
+        <v>0.9806691303652582</v>
       </c>
       <c r="D4">
-        <v>1.00100215435149</v>
+        <v>1.004741401024973</v>
       </c>
       <c r="E4">
-        <v>0.9960738555827247</v>
+        <v>0.9806691303652582</v>
       </c>
       <c r="F4">
-        <v>1.000970083766126</v>
+        <v>1.004883448853897</v>
       </c>
       <c r="G4">
-        <v>1.000979431247661</v>
+        <v>1.004842035326119</v>
       </c>
       <c r="H4">
-        <v>0.997848041482815</v>
+        <v>0.9893351474916072</v>
       </c>
       <c r="I4">
-        <v>1.002580776279932</v>
+        <v>1.01304959265002</v>
       </c>
       <c r="J4">
-        <v>1.00100215435149</v>
+        <v>1.004741401024973</v>
       </c>
       <c r="K4">
-        <v>1.00100215435149</v>
+        <v>1.004741401024973</v>
       </c>
       <c r="L4">
-        <v>1.000970083766126</v>
+        <v>1.004883448853897</v>
       </c>
       <c r="M4">
-        <v>0.9985219696744252</v>
+        <v>0.9927762896095775</v>
       </c>
       <c r="N4">
-        <v>0.9985219696744252</v>
+        <v>0.9927762896095775</v>
       </c>
       <c r="O4">
-        <v>0.9982973269438885</v>
+        <v>0.9916292422369208</v>
       </c>
       <c r="P4">
-        <v>0.9993486979001135</v>
+        <v>0.996764660081376</v>
       </c>
       <c r="Q4">
-        <v>0.9993486979001135</v>
+        <v>0.996764660081376</v>
       </c>
       <c r="R4">
-        <v>0.9997620620129577</v>
+        <v>0.9987588453172751</v>
       </c>
       <c r="S4">
-        <v>0.9997620620129577</v>
+        <v>0.9987588453172751</v>
       </c>
       <c r="T4">
-        <v>0.999909057118458</v>
+        <v>0.9995867926186456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9924773028601389</v>
+        <v>0.9754550722371967</v>
       </c>
       <c r="D5">
-        <v>1.001918430781018</v>
+        <v>1.006027297762805</v>
       </c>
       <c r="E5">
-        <v>0.9924773028601389</v>
+        <v>0.9754550722371967</v>
       </c>
       <c r="F5">
-        <v>1.001859699549799</v>
+        <v>1.006196752398923</v>
       </c>
       <c r="G5">
-        <v>1.001876822011049</v>
+        <v>1.006147342533691</v>
       </c>
       <c r="H5">
-        <v>0.9958761093306499</v>
+        <v>0.9864610727223703</v>
       </c>
       <c r="I5">
-        <v>1.004948008994659</v>
+        <v>1.016556955876009</v>
       </c>
       <c r="J5">
-        <v>1.001918430781018</v>
+        <v>1.006027297762805</v>
       </c>
       <c r="K5">
-        <v>1.001918430781018</v>
+        <v>1.006027297762805</v>
       </c>
       <c r="L5">
-        <v>1.001859699549799</v>
+        <v>1.006196752398923</v>
       </c>
       <c r="M5">
-        <v>0.9971685012049687</v>
+        <v>0.9908259123180601</v>
       </c>
       <c r="N5">
-        <v>0.9971685012049687</v>
+        <v>0.9908259123180601</v>
       </c>
       <c r="O5">
-        <v>0.9967377039135291</v>
+        <v>0.9893709657861635</v>
       </c>
       <c r="P5">
-        <v>0.9987518110636517</v>
+        <v>0.9958930407996416</v>
       </c>
       <c r="Q5">
-        <v>0.9987518110636517</v>
+        <v>0.9958930407996416</v>
       </c>
       <c r="R5">
-        <v>0.9995434659929933</v>
+        <v>0.9984266050404323</v>
       </c>
       <c r="S5">
-        <v>0.9995434659929933</v>
+        <v>0.9984266050404323</v>
       </c>
       <c r="T5">
-        <v>0.9998260622545523</v>
+        <v>0.9994740822551657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9889672911668901</v>
+        <v>0.9722579198863643</v>
       </c>
       <c r="D6">
-        <v>1.002812610824961</v>
+        <v>1.006815130454547</v>
       </c>
       <c r="E6">
-        <v>0.9889672911668901</v>
+        <v>0.9722579198863643</v>
       </c>
       <c r="F6">
-        <v>1.002727936453988</v>
+        <v>1.007002406420455</v>
       </c>
       <c r="G6">
-        <v>1.002752630564145</v>
+        <v>1.006947804147727</v>
       </c>
       <c r="H6">
-        <v>0.9939516044727861</v>
+        <v>0.9846985128409098</v>
       </c>
       <c r="I6">
-        <v>1.007258366876809</v>
+        <v>1.01870875494318</v>
       </c>
       <c r="J6">
-        <v>1.002812610824961</v>
+        <v>1.006815130454547</v>
       </c>
       <c r="K6">
-        <v>1.002812610824961</v>
+        <v>1.006815130454547</v>
       </c>
       <c r="L6">
-        <v>1.002727936453988</v>
+        <v>1.007002406420455</v>
       </c>
       <c r="M6">
-        <v>0.9958476138104391</v>
+        <v>0.9896301631534096</v>
       </c>
       <c r="N6">
-        <v>0.9958476138104391</v>
+        <v>0.9896301631534096</v>
       </c>
       <c r="O6">
-        <v>0.9952156106978881</v>
+        <v>0.9879862797159097</v>
       </c>
       <c r="P6">
-        <v>0.9981692794819463</v>
+        <v>0.9953584855871219</v>
       </c>
       <c r="Q6">
-        <v>0.9981692794819463</v>
+        <v>0.9953584855871219</v>
       </c>
       <c r="R6">
-        <v>0.9993301123177</v>
+        <v>0.9982226468039781</v>
       </c>
       <c r="S6">
-        <v>0.9993301123177</v>
+        <v>0.9982226468039781</v>
       </c>
       <c r="T6">
-        <v>0.999745073393263</v>
+        <v>0.9994050881155304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998561946130334</v>
+        <v>0.9882425363128974</v>
       </c>
       <c r="D7">
-        <v>1.00003507984634</v>
+        <v>1.002896579668134</v>
       </c>
       <c r="E7">
-        <v>0.9998561946130334</v>
+        <v>0.9882425363128974</v>
       </c>
       <c r="F7">
-        <v>1.000036437639962</v>
+        <v>1.002963137905228</v>
       </c>
       <c r="G7">
-        <v>1.000036041250462</v>
+        <v>1.002943729212734</v>
       </c>
       <c r="H7">
-        <v>0.9999205932497658</v>
+        <v>0.9935180001738887</v>
       </c>
       <c r="I7">
-        <v>1.000097421890676</v>
+        <v>1.007914375913422</v>
       </c>
       <c r="J7">
-        <v>1.00003507984634</v>
+        <v>1.002896579668134</v>
       </c>
       <c r="K7">
-        <v>1.00003507984634</v>
+        <v>1.002896579668134</v>
       </c>
       <c r="L7">
-        <v>1.000036437639962</v>
+        <v>1.002963137905228</v>
       </c>
       <c r="M7">
-        <v>0.9999463161264974</v>
+        <v>0.9956028371090628</v>
       </c>
       <c r="N7">
-        <v>0.9999463161264974</v>
+        <v>0.9956028371090628</v>
       </c>
       <c r="O7">
-        <v>0.9999377418342535</v>
+        <v>0.9949078914640048</v>
       </c>
       <c r="P7">
-        <v>0.9999759040331117</v>
+        <v>0.9980340846287531</v>
       </c>
       <c r="Q7">
-        <v>0.9999759040331119</v>
+        <v>0.9980340846287531</v>
       </c>
       <c r="R7">
-        <v>0.9999906979864189</v>
+        <v>0.9992497083885983</v>
       </c>
       <c r="S7">
-        <v>0.9999906979864189</v>
+        <v>0.9992497083885983</v>
       </c>
       <c r="T7">
-        <v>0.9999969614150399</v>
+        <v>0.9997463931977172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996333272564112</v>
+        <v>0.9877769389850531</v>
       </c>
       <c r="D8">
-        <v>1.000089636547123</v>
+        <v>1.003010476454693</v>
       </c>
       <c r="E8">
-        <v>0.9996333272564112</v>
+        <v>0.9877769389850531</v>
       </c>
       <c r="F8">
-        <v>1.000092798967011</v>
+        <v>1.003080927444437</v>
       </c>
       <c r="G8">
-        <v>1.000091876400415</v>
+        <v>1.003060383958551</v>
       </c>
       <c r="H8">
-        <v>0.9997975982453919</v>
+        <v>0.9932610206827857</v>
       </c>
       <c r="I8">
-        <v>1.000248062990082</v>
+        <v>1.008229223149272</v>
       </c>
       <c r="J8">
-        <v>1.000089636547123</v>
+        <v>1.003010476454693</v>
       </c>
       <c r="K8">
-        <v>1.000089636547123</v>
+        <v>1.003010476454693</v>
       </c>
       <c r="L8">
-        <v>1.000092798967011</v>
+        <v>1.003080927444437</v>
       </c>
       <c r="M8">
-        <v>0.9998630631117114</v>
+        <v>0.995428933214745</v>
       </c>
       <c r="N8">
-        <v>0.9998630631117114</v>
+        <v>0.995428933214745</v>
       </c>
       <c r="O8">
-        <v>0.9998412414896048</v>
+        <v>0.9947062957040919</v>
       </c>
       <c r="P8">
-        <v>0.9999385875901819</v>
+        <v>0.9979561142947277</v>
       </c>
       <c r="Q8">
-        <v>0.9999385875901817</v>
+        <v>0.9979561142947279</v>
       </c>
       <c r="R8">
-        <v>0.9999763498294171</v>
+        <v>0.9992197048347193</v>
       </c>
       <c r="S8">
-        <v>0.9999763498294171</v>
+        <v>0.9992197048347193</v>
       </c>
       <c r="T8">
-        <v>0.9999922167344057</v>
+        <v>0.9997364951124653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994862742495573</v>
+        <v>0.9873803235048896</v>
       </c>
       <c r="D9">
-        <v>1.000126040956326</v>
+        <v>1.003106442331684</v>
       </c>
       <c r="E9">
-        <v>0.9994862742495573</v>
+        <v>0.9873803235048896</v>
       </c>
       <c r="F9">
-        <v>1.000129761554459</v>
+        <v>1.003181852320582</v>
       </c>
       <c r="G9">
-        <v>1.000128675943995</v>
+        <v>1.003159863048279</v>
       </c>
       <c r="H9">
-        <v>0.9997165906780165</v>
+        <v>0.9930417344325587</v>
       </c>
       <c r="I9">
-        <v>1.000346734840068</v>
+        <v>1.008499301267611</v>
       </c>
       <c r="J9">
-        <v>1.000126040956326</v>
+        <v>1.003106442331684</v>
       </c>
       <c r="K9">
-        <v>1.000126040956326</v>
+        <v>1.003106442331684</v>
       </c>
       <c r="L9">
-        <v>1.000129761554459</v>
+        <v>1.003181852320582</v>
       </c>
       <c r="M9">
-        <v>0.9998080179020081</v>
+        <v>0.9952810879127358</v>
       </c>
       <c r="N9">
-        <v>0.9998080179020081</v>
+        <v>0.9952810879127358</v>
       </c>
       <c r="O9">
-        <v>0.9997775421606776</v>
+        <v>0.9945346367526767</v>
       </c>
       <c r="P9">
-        <v>0.9999140255867808</v>
+        <v>0.9978895393857184</v>
       </c>
       <c r="Q9">
-        <v>0.9999140255867808</v>
+        <v>0.9978895393857184</v>
       </c>
       <c r="R9">
-        <v>0.9999670294291672</v>
+        <v>0.9991937651222098</v>
       </c>
       <c r="S9">
-        <v>0.9999670294291672</v>
+        <v>0.9991937651222098</v>
       </c>
       <c r="T9">
-        <v>0.9999890130370703</v>
+        <v>0.9997282528176007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9988926606350949</v>
+        <v>0.9864393052006043</v>
       </c>
       <c r="D10">
-        <v>1.000271163467615</v>
+        <v>1.003339096937515</v>
       </c>
       <c r="E10">
-        <v>0.9988926606350949</v>
+        <v>0.9864393052006043</v>
       </c>
       <c r="F10">
-        <v>1.000279988280974</v>
+        <v>1.003418551324825</v>
       </c>
       <c r="G10">
-        <v>1.000277415410405</v>
+        <v>1.003395383129895</v>
       </c>
       <c r="H10">
-        <v>0.9993889209955235</v>
+        <v>0.9925232381748845</v>
       </c>
       <c r="I10">
-        <v>1.000748313016744</v>
+        <v>1.009131269780359</v>
       </c>
       <c r="J10">
-        <v>1.000271163467615</v>
+        <v>1.003339096937515</v>
       </c>
       <c r="K10">
-        <v>1.000271163467615</v>
+        <v>1.003339096937515</v>
       </c>
       <c r="L10">
-        <v>1.000279988280974</v>
+        <v>1.003418551324825</v>
       </c>
       <c r="M10">
-        <v>0.9995863244580345</v>
+        <v>0.9949289282627145</v>
       </c>
       <c r="N10">
-        <v>0.9995863244580345</v>
+        <v>0.9949289282627145</v>
       </c>
       <c r="O10">
-        <v>0.9995205233038642</v>
+        <v>0.9941270315667712</v>
       </c>
       <c r="P10">
-        <v>0.9998146041278947</v>
+        <v>0.9977323178209813</v>
       </c>
       <c r="Q10">
-        <v>0.9998146041278947</v>
+        <v>0.9977323178209812</v>
       </c>
       <c r="R10">
-        <v>0.9999287439628248</v>
+        <v>0.9991340126001146</v>
       </c>
       <c r="S10">
-        <v>0.9999287439628248</v>
+        <v>0.9991340126001146</v>
       </c>
       <c r="T10">
-        <v>0.9999764103010594</v>
+        <v>0.9997078074246802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.998162365830548</v>
+        <v>0.997779731588589</v>
       </c>
       <c r="D11">
-        <v>1.000451123163031</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="E11">
-        <v>0.998162365830548</v>
+        <v>0.997779731588589</v>
       </c>
       <c r="F11">
-        <v>1.00046401300846</v>
+        <v>1.000548787552965</v>
       </c>
       <c r="G11">
-        <v>1.00046025758527</v>
+        <v>1.0005539141017</v>
       </c>
       <c r="H11">
-        <v>0.9989863211045443</v>
+        <v>0.9987829235572675</v>
       </c>
       <c r="I11">
-        <v>1.001239820932686</v>
+        <v>1.001460075899733</v>
       </c>
       <c r="J11">
-        <v>1.000451123163031</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="K11">
-        <v>1.000451123163031</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="L11">
-        <v>1.00046401300846</v>
+        <v>1.000548787552965</v>
       </c>
       <c r="M11">
-        <v>0.9993131894195038</v>
+        <v>0.9991642595707771</v>
       </c>
       <c r="N11">
-        <v>0.9993131894195038</v>
+        <v>0.9991642595707771</v>
       </c>
       <c r="O11">
-        <v>0.9992042333145172</v>
+        <v>0.9990371475662739</v>
       </c>
       <c r="P11">
-        <v>0.9996925006673463</v>
+        <v>0.9996316314507344</v>
       </c>
       <c r="Q11">
-        <v>0.9996925006673463</v>
+        <v>0.9996316314507344</v>
       </c>
       <c r="R11">
-        <v>0.9998821562912675</v>
+        <v>0.999865317390713</v>
       </c>
       <c r="S11">
-        <v>0.9998821562912675</v>
+        <v>0.999865317390713</v>
       </c>
       <c r="T11">
-        <v>0.9999606502707565</v>
+        <v>0.9999486346518172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.01619378562725</v>
+        <v>0.9989390939767261</v>
       </c>
       <c r="D12">
-        <v>0.9961531790010327</v>
+        <v>1.000270415664233</v>
       </c>
       <c r="E12">
-        <v>1.01619378562725</v>
+        <v>0.9989390939767261</v>
       </c>
       <c r="F12">
-        <v>0.9958395349337441</v>
+        <v>1.000262345759029</v>
       </c>
       <c r="G12">
-        <v>0.9959309795480384</v>
+        <v>1.000264698079674</v>
       </c>
       <c r="H12">
-        <v>1.008979166777253</v>
+        <v>0.9994183698279563</v>
       </c>
       <c r="I12">
-        <v>0.9888456942407716</v>
+        <v>1.000698047454837</v>
       </c>
       <c r="J12">
-        <v>0.9961531790010327</v>
+        <v>1.000270415664233</v>
       </c>
       <c r="K12">
-        <v>0.9961531790010327</v>
+        <v>1.000270415664233</v>
       </c>
       <c r="L12">
-        <v>0.9958395349337441</v>
+        <v>1.000262345759029</v>
       </c>
       <c r="M12">
-        <v>1.006016660280497</v>
+        <v>0.9996007198678774</v>
       </c>
       <c r="N12">
-        <v>1.006016660280497</v>
+        <v>0.9996007198678774</v>
       </c>
       <c r="O12">
-        <v>1.007004162446083</v>
+        <v>0.999539936521237</v>
       </c>
       <c r="P12">
-        <v>1.002728833187342</v>
+        <v>0.9998239517999958</v>
       </c>
       <c r="Q12">
-        <v>1.002728833187342</v>
+        <v>0.9998239517999957</v>
       </c>
       <c r="R12">
-        <v>1.001084919640765</v>
+        <v>0.999935567766055</v>
       </c>
       <c r="S12">
-        <v>1.001084919640765</v>
+        <v>0.999935567766055</v>
       </c>
       <c r="T12">
-        <v>1.000323723354682</v>
+        <v>0.9999754951270757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004281512278193</v>
+        <v>0.996424109108212</v>
       </c>
       <c r="D13">
-        <v>0.9988435297029158</v>
+        <v>1.000913706789431</v>
       </c>
       <c r="E13">
-        <v>1.004281512278193</v>
+        <v>0.996424109108212</v>
       </c>
       <c r="F13">
-        <v>0.9989774543220438</v>
+        <v>1.000883011835596</v>
       </c>
       <c r="G13">
-        <v>0.9989384095331948</v>
+        <v>1.000891956709835</v>
       </c>
       <c r="H13">
-        <v>1.002323840243186</v>
+        <v>0.9980403661533165</v>
       </c>
       <c r="I13">
-        <v>0.9972987184543197</v>
+        <v>1.002348842477253</v>
       </c>
       <c r="J13">
-        <v>0.9988435297029158</v>
+        <v>1.000913706789431</v>
       </c>
       <c r="K13">
-        <v>0.9988435297029158</v>
+        <v>1.000913706789431</v>
       </c>
       <c r="L13">
-        <v>0.9989774543220438</v>
+        <v>1.000883011835596</v>
       </c>
       <c r="M13">
-        <v>1.001629483300118</v>
+        <v>0.9986535604719041</v>
       </c>
       <c r="N13">
-        <v>1.001629483300118</v>
+        <v>0.9986535604719041</v>
       </c>
       <c r="O13">
-        <v>1.001860935614474</v>
+        <v>0.9984491623657082</v>
       </c>
       <c r="P13">
-        <v>1.000700832101051</v>
+        <v>0.9994069425777464</v>
       </c>
       <c r="Q13">
-        <v>1.000700832101051</v>
+        <v>0.9994069425777464</v>
       </c>
       <c r="R13">
-        <v>1.000236506501517</v>
+        <v>0.9997836336306675</v>
       </c>
       <c r="S13">
-        <v>1.000236506501517</v>
+        <v>0.9997836336306675</v>
       </c>
       <c r="T13">
-        <v>1.000110577422309</v>
+        <v>0.9999169988456074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.016192791675805</v>
+        <v>0.9943304187557614</v>
       </c>
       <c r="D14">
-        <v>0.9961534253400083</v>
+        <v>1.001445489408322</v>
       </c>
       <c r="E14">
-        <v>1.016192791675805</v>
+        <v>0.9943304187557614</v>
       </c>
       <c r="F14">
-        <v>0.9958397955921674</v>
+        <v>1.001401792650888</v>
       </c>
       <c r="G14">
-        <v>0.9959312205833203</v>
+        <v>1.001414533331448</v>
       </c>
       <c r="H14">
-        <v>1.008978614400679</v>
+        <v>0.996891844037934</v>
       </c>
       <c r="I14">
-        <v>0.9888463568737659</v>
+        <v>1.003729774806814</v>
       </c>
       <c r="J14">
-        <v>0.9961534253400083</v>
+        <v>1.001445489408322</v>
       </c>
       <c r="K14">
-        <v>0.9961534253400083</v>
+        <v>1.001445489408322</v>
       </c>
       <c r="L14">
-        <v>0.9958397955921674</v>
+        <v>1.001401792650888</v>
       </c>
       <c r="M14">
-        <v>1.006016293633986</v>
+        <v>0.9978661057033249</v>
       </c>
       <c r="N14">
-        <v>1.006016293633986</v>
+        <v>0.9978661057033249</v>
       </c>
       <c r="O14">
-        <v>1.007003733889551</v>
+        <v>0.9975413518148613</v>
       </c>
       <c r="P14">
-        <v>1.002728670869327</v>
+        <v>0.9990592336049904</v>
       </c>
       <c r="Q14">
-        <v>1.002728670869327</v>
+        <v>0.9990592336049904</v>
       </c>
       <c r="R14">
-        <v>1.001084859486997</v>
+        <v>0.9996557975558231</v>
       </c>
       <c r="S14">
-        <v>1.001084859486997</v>
+        <v>0.9996557975558231</v>
       </c>
       <c r="T14">
-        <v>1.000323700744291</v>
+        <v>0.9998689754985279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.004281246458286</v>
+        <v>0.9979662088770517</v>
       </c>
       <c r="D15">
-        <v>0.9988435949106167</v>
+        <v>1.000519173538077</v>
       </c>
       <c r="E15">
-        <v>1.004281246458286</v>
+        <v>0.9979662088770517</v>
       </c>
       <c r="F15">
-        <v>0.9989775219174646</v>
+        <v>1.000502491316748</v>
       </c>
       <c r="G15">
-        <v>0.9989384745812944</v>
+        <v>1.000507354288271</v>
       </c>
       <c r="H15">
-        <v>1.002323695021608</v>
+        <v>0.9988852763082071</v>
       </c>
       <c r="I15">
-        <v>0.9972988951839029</v>
+        <v>1.001336794104749</v>
       </c>
       <c r="J15">
-        <v>0.9988435949106167</v>
+        <v>1.000519173538077</v>
       </c>
       <c r="K15">
-        <v>0.9988435949106167</v>
+        <v>1.000519173538077</v>
       </c>
       <c r="L15">
-        <v>0.9989775219174646</v>
+        <v>1.000502491316748</v>
       </c>
       <c r="M15">
-        <v>1.001629384187875</v>
+        <v>0.9992343500969001</v>
       </c>
       <c r="N15">
-        <v>1.001629384187875</v>
+        <v>0.9992343500969001</v>
       </c>
       <c r="O15">
-        <v>1.001860821132453</v>
+        <v>0.9991179921673358</v>
       </c>
       <c r="P15">
-        <v>1.000700787762122</v>
+        <v>0.9996626245772925</v>
       </c>
       <c r="Q15">
-        <v>1.000700787762122</v>
+        <v>0.9996626245772925</v>
       </c>
       <c r="R15">
-        <v>1.000236489549246</v>
+        <v>0.9998767618174886</v>
       </c>
       <c r="S15">
-        <v>1.000236489549246</v>
+        <v>0.9998767618174886</v>
       </c>
       <c r="T15">
-        <v>1.000110571345529</v>
+        <v>0.9999528830721841</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9603494478452225</v>
+        <v>0.9960738555827247</v>
       </c>
       <c r="D16">
-        <v>1.010096338906463</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="E16">
-        <v>0.9603494478452225</v>
+        <v>0.9960738555827247</v>
       </c>
       <c r="F16">
-        <v>1.0098105848112</v>
+        <v>1.000970083766126</v>
       </c>
       <c r="G16">
-        <v>1.009893899379124</v>
+        <v>1.000979431247661</v>
       </c>
       <c r="H16">
-        <v>0.9782583283263097</v>
+        <v>0.997848041482815</v>
       </c>
       <c r="I16">
-        <v>1.026107120792668</v>
+        <v>1.002580776279932</v>
       </c>
       <c r="J16">
-        <v>1.010096338906463</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="K16">
-        <v>1.010096338906463</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="L16">
-        <v>1.0098105848112</v>
+        <v>1.000970083766126</v>
       </c>
       <c r="M16">
-        <v>0.9850800163282112</v>
+        <v>0.9985219696744252</v>
       </c>
       <c r="N16">
-        <v>0.9850800163282112</v>
+        <v>0.9985219696744252</v>
       </c>
       <c r="O16">
-        <v>0.9828061203275773</v>
+        <v>0.9982973269438885</v>
       </c>
       <c r="P16">
-        <v>0.9934187905209617</v>
+        <v>0.9993486979001135</v>
       </c>
       <c r="Q16">
-        <v>0.9934187905209617</v>
+        <v>0.9993486979001135</v>
       </c>
       <c r="R16">
-        <v>0.997588177617337</v>
+        <v>0.9997620620129577</v>
       </c>
       <c r="S16">
-        <v>0.997588177617337</v>
+        <v>0.9997620620129577</v>
       </c>
       <c r="T16">
-        <v>0.9990859533434978</v>
+        <v>0.999909057118458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9675952435883178</v>
+        <v>0.9924773028601389</v>
       </c>
       <c r="D17">
-        <v>1.008194982393357</v>
+        <v>1.001918430781018</v>
       </c>
       <c r="E17">
-        <v>0.9675952435883178</v>
+        <v>0.9924773028601389</v>
       </c>
       <c r="F17">
-        <v>1.008049083664659</v>
+        <v>1.001859699549799</v>
       </c>
       <c r="G17">
-        <v>1.008091622621339</v>
+        <v>1.001876822011049</v>
       </c>
       <c r="H17">
-        <v>0.9822111492721796</v>
+        <v>0.9958761093306499</v>
       </c>
       <c r="I17">
-        <v>1.021436428124142</v>
+        <v>1.004948008994659</v>
       </c>
       <c r="J17">
-        <v>1.008194982393357</v>
+        <v>1.001918430781018</v>
       </c>
       <c r="K17">
-        <v>1.008194982393357</v>
+        <v>1.001918430781018</v>
       </c>
       <c r="L17">
-        <v>1.008049083664659</v>
+        <v>1.001859699549799</v>
       </c>
       <c r="M17">
-        <v>0.9878221636264886</v>
+        <v>0.9971685012049687</v>
       </c>
       <c r="N17">
-        <v>0.9878221636264886</v>
+        <v>0.9971685012049687</v>
       </c>
       <c r="O17">
-        <v>0.9859518255083856</v>
+        <v>0.9967377039135291</v>
       </c>
       <c r="P17">
-        <v>0.9946131032154447</v>
+        <v>0.9987518110636517</v>
       </c>
       <c r="Q17">
-        <v>0.9946131032154447</v>
+        <v>0.9987518110636517</v>
       </c>
       <c r="R17">
-        <v>0.9980085730099226</v>
+        <v>0.9995434659929933</v>
       </c>
       <c r="S17">
-        <v>0.9980085730099226</v>
+        <v>0.9995434659929933</v>
       </c>
       <c r="T17">
-        <v>0.999263084943999</v>
+        <v>0.9998260622545523</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9821629585498547</v>
+        <v>0.9889672911668901</v>
       </c>
       <c r="D18">
-        <v>1.004375122864948</v>
+        <v>1.002812610824961</v>
       </c>
       <c r="E18">
-        <v>0.9821629585498547</v>
+        <v>0.9889672911668901</v>
       </c>
       <c r="F18">
-        <v>1.004506003758615</v>
+        <v>1.002727936453988</v>
       </c>
       <c r="G18">
-        <v>1.004467846276429</v>
+        <v>1.002752630564145</v>
       </c>
       <c r="H18">
-        <v>0.9901593361187059</v>
+        <v>0.9939516044727861</v>
       </c>
       <c r="I18">
-        <v>1.012040944062701</v>
+        <v>1.007258366876809</v>
       </c>
       <c r="J18">
-        <v>1.004375122864948</v>
+        <v>1.002812610824961</v>
       </c>
       <c r="K18">
-        <v>1.004375122864948</v>
+        <v>1.002812610824961</v>
       </c>
       <c r="L18">
-        <v>1.004506003758615</v>
+        <v>1.002727936453988</v>
       </c>
       <c r="M18">
-        <v>0.9933344811542346</v>
+        <v>0.9958476138104391</v>
       </c>
       <c r="N18">
-        <v>0.9933344811542346</v>
+        <v>0.9958476138104391</v>
       </c>
       <c r="O18">
-        <v>0.992276099475725</v>
+        <v>0.9952156106978881</v>
       </c>
       <c r="P18">
-        <v>0.9970146950578057</v>
+        <v>0.9981692794819463</v>
       </c>
       <c r="Q18">
-        <v>0.9970146950578057</v>
+        <v>0.9981692794819463</v>
       </c>
       <c r="R18">
-        <v>0.9988548020095913</v>
+        <v>0.9993301123177</v>
       </c>
       <c r="S18">
-        <v>0.9988548020095913</v>
+        <v>0.9993301123177</v>
       </c>
       <c r="T18">
-        <v>0.9996187019385423</v>
+        <v>0.999745073393263</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9805488172993596</v>
+        <v>0.9998561946130334</v>
       </c>
       <c r="D19">
-        <v>1.004743439584665</v>
+        <v>1.00003507984634</v>
       </c>
       <c r="E19">
-        <v>0.9805488172993596</v>
+        <v>0.9998561946130334</v>
       </c>
       <c r="F19">
-        <v>1.004929103146192</v>
+        <v>1.000036437639962</v>
       </c>
       <c r="G19">
-        <v>1.004874970844589</v>
+        <v>1.000036041250462</v>
       </c>
       <c r="H19">
-        <v>0.9892588837860263</v>
+        <v>0.9999205932497658</v>
       </c>
       <c r="I19">
-        <v>1.013179640888713</v>
+        <v>1.000097421890676</v>
       </c>
       <c r="J19">
-        <v>1.004743439584665</v>
+        <v>1.00003507984634</v>
       </c>
       <c r="K19">
-        <v>1.004743439584665</v>
+        <v>1.00003507984634</v>
       </c>
       <c r="L19">
-        <v>1.004929103146192</v>
+        <v>1.000036437639962</v>
       </c>
       <c r="M19">
-        <v>0.9927389602227759</v>
+        <v>0.9999463161264974</v>
       </c>
       <c r="N19">
-        <v>0.9927389602227759</v>
+        <v>0.9999463161264974</v>
       </c>
       <c r="O19">
-        <v>0.9915789347438594</v>
+        <v>0.9999377418342535</v>
       </c>
       <c r="P19">
-        <v>0.9967404533434058</v>
+        <v>0.9999759040331117</v>
       </c>
       <c r="Q19">
-        <v>0.9967404533434058</v>
+        <v>0.9999759040331119</v>
       </c>
       <c r="R19">
-        <v>0.9987411999037206</v>
+        <v>0.9999906979864189</v>
       </c>
       <c r="S19">
-        <v>0.9987411999037206</v>
+        <v>0.9999906979864189</v>
       </c>
       <c r="T19">
-        <v>0.9995891425915908</v>
+        <v>0.9999969614150399</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999923324773154</v>
+        <v>0.9996333272564112</v>
       </c>
       <c r="D20">
-        <v>1.000000956107217</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="E20">
-        <v>0.9999923324773154</v>
+        <v>0.9996333272564112</v>
       </c>
       <c r="F20">
-        <v>1.000002452754069</v>
+        <v>1.000092798967011</v>
       </c>
       <c r="G20">
-        <v>1.000002015844742</v>
+        <v>1.000091876400415</v>
       </c>
       <c r="H20">
-        <v>0.9999954369816845</v>
+        <v>0.9997975982453919</v>
       </c>
       <c r="I20">
-        <v>1.000006821768797</v>
+        <v>1.000248062990082</v>
       </c>
       <c r="J20">
-        <v>1.000000956107217</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="K20">
-        <v>1.000000956107217</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="L20">
-        <v>1.000002452754069</v>
+        <v>1.000092798967011</v>
       </c>
       <c r="M20">
-        <v>0.9999973926156921</v>
+        <v>0.9998630631117114</v>
       </c>
       <c r="N20">
-        <v>0.9999973926156921</v>
+        <v>0.9998630631117114</v>
       </c>
       <c r="O20">
-        <v>0.9999967407376896</v>
+        <v>0.9998412414896048</v>
       </c>
       <c r="P20">
-        <v>0.9999985804462002</v>
+        <v>0.9999385875901819</v>
       </c>
       <c r="Q20">
-        <v>0.9999985804462002</v>
+        <v>0.9999385875901817</v>
       </c>
       <c r="R20">
-        <v>0.9999991743614542</v>
+        <v>0.9999763498294171</v>
       </c>
       <c r="S20">
-        <v>0.9999991743614542</v>
+        <v>0.9999763498294171</v>
       </c>
       <c r="T20">
-        <v>1.000000002655637</v>
+        <v>0.9999922167344057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998229840661341</v>
+        <v>0.9994862742495573</v>
       </c>
       <c r="D21">
-        <v>1.000044032291963</v>
+        <v>1.000126040956326</v>
       </c>
       <c r="E21">
-        <v>0.9998229840661341</v>
+        <v>0.9994862742495573</v>
       </c>
       <c r="F21">
-        <v>1.000044379076635</v>
+        <v>1.000129761554459</v>
       </c>
       <c r="G21">
-        <v>1.000044277443791</v>
+        <v>1.000128675943995</v>
       </c>
       <c r="H21">
-        <v>0.9999025616811347</v>
+        <v>0.9997165906780165</v>
       </c>
       <c r="I21">
-        <v>1.000118405284319</v>
+        <v>1.000346734840068</v>
       </c>
       <c r="J21">
-        <v>1.000044032291963</v>
+        <v>1.000126040956326</v>
       </c>
       <c r="K21">
-        <v>1.000044032291963</v>
+        <v>1.000126040956326</v>
       </c>
       <c r="L21">
-        <v>1.000044379076635</v>
+        <v>1.000129761554459</v>
       </c>
       <c r="M21">
-        <v>0.9999336815713847</v>
+        <v>0.9998080179020081</v>
       </c>
       <c r="N21">
-        <v>0.9999336815713847</v>
+        <v>0.9998080179020081</v>
       </c>
       <c r="O21">
-        <v>0.9999233082746347</v>
+        <v>0.9997775421606776</v>
       </c>
       <c r="P21">
-        <v>0.9999704651449108</v>
+        <v>0.9999140255867808</v>
       </c>
       <c r="Q21">
-        <v>0.9999704651449108</v>
+        <v>0.9999140255867808</v>
       </c>
       <c r="R21">
-        <v>0.9999888569316739</v>
+        <v>0.9999670294291672</v>
       </c>
       <c r="S21">
-        <v>0.9999888569316739</v>
+        <v>0.9999670294291672</v>
       </c>
       <c r="T21">
-        <v>0.9999961066406629</v>
+        <v>0.9999890130370703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9993746272232763</v>
+        <v>0.9988926606350949</v>
       </c>
       <c r="D22">
-        <v>1.000158529607256</v>
+        <v>1.000271163467615</v>
       </c>
       <c r="E22">
-        <v>0.9993746272232763</v>
+        <v>0.9988926606350949</v>
       </c>
       <c r="F22">
-        <v>1.0001551329021</v>
+        <v>1.000279988280974</v>
       </c>
       <c r="G22">
-        <v>1.000156120289851</v>
+        <v>1.000277415410405</v>
       </c>
       <c r="H22">
-        <v>0.9996568307749955</v>
+        <v>0.9993889209955235</v>
       </c>
       <c r="I22">
-        <v>1.000413030716101</v>
+        <v>1.000748313016744</v>
       </c>
       <c r="J22">
-        <v>1.000158529607256</v>
+        <v>1.000271163467615</v>
       </c>
       <c r="K22">
-        <v>1.000158529607256</v>
+        <v>1.000271163467615</v>
       </c>
       <c r="L22">
-        <v>1.0001551329021</v>
+        <v>1.000279988280974</v>
       </c>
       <c r="M22">
-        <v>0.9997648800626884</v>
+        <v>0.9995863244580345</v>
       </c>
       <c r="N22">
-        <v>0.9997648800626884</v>
+        <v>0.9995863244580345</v>
       </c>
       <c r="O22">
-        <v>0.9997288636334574</v>
+        <v>0.9995205233038642</v>
       </c>
       <c r="P22">
-        <v>0.9998960965775444</v>
+        <v>0.9998146041278947</v>
       </c>
       <c r="Q22">
-        <v>0.9998960965775443</v>
+        <v>0.9998146041278947</v>
       </c>
       <c r="R22">
-        <v>0.9999617048349723</v>
+        <v>0.9999287439628248</v>
       </c>
       <c r="S22">
-        <v>0.9999617048349723</v>
+        <v>0.9999287439628248</v>
       </c>
       <c r="T22">
-        <v>0.99998571191893</v>
+        <v>0.9999764103010594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.998162365830548</v>
+      </c>
+      <c r="D23">
+        <v>1.000451123163031</v>
+      </c>
+      <c r="E23">
+        <v>0.998162365830548</v>
+      </c>
+      <c r="F23">
+        <v>1.00046401300846</v>
+      </c>
+      <c r="G23">
+        <v>1.00046025758527</v>
+      </c>
+      <c r="H23">
+        <v>0.9989863211045443</v>
+      </c>
+      <c r="I23">
+        <v>1.001239820932686</v>
+      </c>
+      <c r="J23">
+        <v>1.000451123163031</v>
+      </c>
+      <c r="K23">
+        <v>1.000451123163031</v>
+      </c>
+      <c r="L23">
+        <v>1.00046401300846</v>
+      </c>
+      <c r="M23">
+        <v>0.9993131894195038</v>
+      </c>
+      <c r="N23">
+        <v>0.9993131894195038</v>
+      </c>
+      <c r="O23">
+        <v>0.9992042333145172</v>
+      </c>
+      <c r="P23">
+        <v>0.9996925006673463</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996925006673463</v>
+      </c>
+      <c r="R23">
+        <v>0.9998821562912675</v>
+      </c>
+      <c r="S23">
+        <v>0.9998821562912675</v>
+      </c>
+      <c r="T23">
+        <v>0.9999606502707565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.01619378562725</v>
+      </c>
+      <c r="D24">
+        <v>0.9961531790010327</v>
+      </c>
+      <c r="E24">
+        <v>1.01619378562725</v>
+      </c>
+      <c r="F24">
+        <v>0.9958395349337441</v>
+      </c>
+      <c r="G24">
+        <v>0.9959309795480384</v>
+      </c>
+      <c r="H24">
+        <v>1.008979166777253</v>
+      </c>
+      <c r="I24">
+        <v>0.9888456942407716</v>
+      </c>
+      <c r="J24">
+        <v>0.9961531790010327</v>
+      </c>
+      <c r="K24">
+        <v>0.9961531790010327</v>
+      </c>
+      <c r="L24">
+        <v>0.9958395349337441</v>
+      </c>
+      <c r="M24">
+        <v>1.006016660280497</v>
+      </c>
+      <c r="N24">
+        <v>1.006016660280497</v>
+      </c>
+      <c r="O24">
+        <v>1.007004162446083</v>
+      </c>
+      <c r="P24">
+        <v>1.002728833187342</v>
+      </c>
+      <c r="Q24">
+        <v>1.002728833187342</v>
+      </c>
+      <c r="R24">
+        <v>1.001084919640765</v>
+      </c>
+      <c r="S24">
+        <v>1.001084919640765</v>
+      </c>
+      <c r="T24">
+        <v>1.000323723354682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.004281512278193</v>
+      </c>
+      <c r="D25">
+        <v>0.9988435297029158</v>
+      </c>
+      <c r="E25">
+        <v>1.004281512278193</v>
+      </c>
+      <c r="F25">
+        <v>0.9989774543220438</v>
+      </c>
+      <c r="G25">
+        <v>0.9989384095331948</v>
+      </c>
+      <c r="H25">
+        <v>1.002323840243186</v>
+      </c>
+      <c r="I25">
+        <v>0.9972987184543197</v>
+      </c>
+      <c r="J25">
+        <v>0.9988435297029158</v>
+      </c>
+      <c r="K25">
+        <v>0.9988435297029158</v>
+      </c>
+      <c r="L25">
+        <v>0.9989774543220438</v>
+      </c>
+      <c r="M25">
+        <v>1.001629483300118</v>
+      </c>
+      <c r="N25">
+        <v>1.001629483300118</v>
+      </c>
+      <c r="O25">
+        <v>1.001860935614474</v>
+      </c>
+      <c r="P25">
+        <v>1.000700832101051</v>
+      </c>
+      <c r="Q25">
+        <v>1.000700832101051</v>
+      </c>
+      <c r="R25">
+        <v>1.000236506501517</v>
+      </c>
+      <c r="S25">
+        <v>1.000236506501517</v>
+      </c>
+      <c r="T25">
+        <v>1.000110577422309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.016192791675805</v>
+      </c>
+      <c r="D26">
+        <v>0.9961534253400083</v>
+      </c>
+      <c r="E26">
+        <v>1.016192791675805</v>
+      </c>
+      <c r="F26">
+        <v>0.9958397955921674</v>
+      </c>
+      <c r="G26">
+        <v>0.9959312205833203</v>
+      </c>
+      <c r="H26">
+        <v>1.008978614400679</v>
+      </c>
+      <c r="I26">
+        <v>0.9888463568737659</v>
+      </c>
+      <c r="J26">
+        <v>0.9961534253400083</v>
+      </c>
+      <c r="K26">
+        <v>0.9961534253400083</v>
+      </c>
+      <c r="L26">
+        <v>0.9958397955921674</v>
+      </c>
+      <c r="M26">
+        <v>1.006016293633986</v>
+      </c>
+      <c r="N26">
+        <v>1.006016293633986</v>
+      </c>
+      <c r="O26">
+        <v>1.007003733889551</v>
+      </c>
+      <c r="P26">
+        <v>1.002728670869327</v>
+      </c>
+      <c r="Q26">
+        <v>1.002728670869327</v>
+      </c>
+      <c r="R26">
+        <v>1.001084859486997</v>
+      </c>
+      <c r="S26">
+        <v>1.001084859486997</v>
+      </c>
+      <c r="T26">
+        <v>1.000323700744291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.004281246458286</v>
+      </c>
+      <c r="D27">
+        <v>0.9988435949106167</v>
+      </c>
+      <c r="E27">
+        <v>1.004281246458286</v>
+      </c>
+      <c r="F27">
+        <v>0.9989775219174646</v>
+      </c>
+      <c r="G27">
+        <v>0.9989384745812944</v>
+      </c>
+      <c r="H27">
+        <v>1.002323695021608</v>
+      </c>
+      <c r="I27">
+        <v>0.9972988951839029</v>
+      </c>
+      <c r="J27">
+        <v>0.9988435949106167</v>
+      </c>
+      <c r="K27">
+        <v>0.9988435949106167</v>
+      </c>
+      <c r="L27">
+        <v>0.9989775219174646</v>
+      </c>
+      <c r="M27">
+        <v>1.001629384187875</v>
+      </c>
+      <c r="N27">
+        <v>1.001629384187875</v>
+      </c>
+      <c r="O27">
+        <v>1.001860821132453</v>
+      </c>
+      <c r="P27">
+        <v>1.000700787762122</v>
+      </c>
+      <c r="Q27">
+        <v>1.000700787762122</v>
+      </c>
+      <c r="R27">
+        <v>1.000236489549246</v>
+      </c>
+      <c r="S27">
+        <v>1.000236489549246</v>
+      </c>
+      <c r="T27">
+        <v>1.000110571345529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9603494478452225</v>
+      </c>
+      <c r="D28">
+        <v>1.010096338906463</v>
+      </c>
+      <c r="E28">
+        <v>0.9603494478452225</v>
+      </c>
+      <c r="F28">
+        <v>1.0098105848112</v>
+      </c>
+      <c r="G28">
+        <v>1.009893899379124</v>
+      </c>
+      <c r="H28">
+        <v>0.9782583283263097</v>
+      </c>
+      <c r="I28">
+        <v>1.026107120792668</v>
+      </c>
+      <c r="J28">
+        <v>1.010096338906463</v>
+      </c>
+      <c r="K28">
+        <v>1.010096338906463</v>
+      </c>
+      <c r="L28">
+        <v>1.0098105848112</v>
+      </c>
+      <c r="M28">
+        <v>0.9850800163282112</v>
+      </c>
+      <c r="N28">
+        <v>0.9850800163282112</v>
+      </c>
+      <c r="O28">
+        <v>0.9828061203275773</v>
+      </c>
+      <c r="P28">
+        <v>0.9934187905209617</v>
+      </c>
+      <c r="Q28">
+        <v>0.9934187905209617</v>
+      </c>
+      <c r="R28">
+        <v>0.997588177617337</v>
+      </c>
+      <c r="S28">
+        <v>0.997588177617337</v>
+      </c>
+      <c r="T28">
+        <v>0.9990859533434978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9675952435883178</v>
+      </c>
+      <c r="D29">
+        <v>1.008194982393357</v>
+      </c>
+      <c r="E29">
+        <v>0.9675952435883178</v>
+      </c>
+      <c r="F29">
+        <v>1.008049083664659</v>
+      </c>
+      <c r="G29">
+        <v>1.008091622621339</v>
+      </c>
+      <c r="H29">
+        <v>0.9822111492721796</v>
+      </c>
+      <c r="I29">
+        <v>1.021436428124142</v>
+      </c>
+      <c r="J29">
+        <v>1.008194982393357</v>
+      </c>
+      <c r="K29">
+        <v>1.008194982393357</v>
+      </c>
+      <c r="L29">
+        <v>1.008049083664659</v>
+      </c>
+      <c r="M29">
+        <v>0.9878221636264886</v>
+      </c>
+      <c r="N29">
+        <v>0.9878221636264886</v>
+      </c>
+      <c r="O29">
+        <v>0.9859518255083856</v>
+      </c>
+      <c r="P29">
+        <v>0.9946131032154447</v>
+      </c>
+      <c r="Q29">
+        <v>0.9946131032154447</v>
+      </c>
+      <c r="R29">
+        <v>0.9980085730099226</v>
+      </c>
+      <c r="S29">
+        <v>0.9980085730099226</v>
+      </c>
+      <c r="T29">
+        <v>0.999263084943999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9821629585498547</v>
+      </c>
+      <c r="D30">
+        <v>1.004375122864948</v>
+      </c>
+      <c r="E30">
+        <v>0.9821629585498547</v>
+      </c>
+      <c r="F30">
+        <v>1.004506003758615</v>
+      </c>
+      <c r="G30">
+        <v>1.004467846276429</v>
+      </c>
+      <c r="H30">
+        <v>0.9901593361187059</v>
+      </c>
+      <c r="I30">
+        <v>1.012040944062701</v>
+      </c>
+      <c r="J30">
+        <v>1.004375122864948</v>
+      </c>
+      <c r="K30">
+        <v>1.004375122864948</v>
+      </c>
+      <c r="L30">
+        <v>1.004506003758615</v>
+      </c>
+      <c r="M30">
+        <v>0.9933344811542346</v>
+      </c>
+      <c r="N30">
+        <v>0.9933344811542346</v>
+      </c>
+      <c r="O30">
+        <v>0.992276099475725</v>
+      </c>
+      <c r="P30">
+        <v>0.9970146950578057</v>
+      </c>
+      <c r="Q30">
+        <v>0.9970146950578057</v>
+      </c>
+      <c r="R30">
+        <v>0.9988548020095913</v>
+      </c>
+      <c r="S30">
+        <v>0.9988548020095913</v>
+      </c>
+      <c r="T30">
+        <v>0.9996187019385423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9805488172993596</v>
+      </c>
+      <c r="D31">
+        <v>1.004743439584665</v>
+      </c>
+      <c r="E31">
+        <v>0.9805488172993596</v>
+      </c>
+      <c r="F31">
+        <v>1.004929103146192</v>
+      </c>
+      <c r="G31">
+        <v>1.004874970844589</v>
+      </c>
+      <c r="H31">
+        <v>0.9892588837860263</v>
+      </c>
+      <c r="I31">
+        <v>1.013179640888713</v>
+      </c>
+      <c r="J31">
+        <v>1.004743439584665</v>
+      </c>
+      <c r="K31">
+        <v>1.004743439584665</v>
+      </c>
+      <c r="L31">
+        <v>1.004929103146192</v>
+      </c>
+      <c r="M31">
+        <v>0.9927389602227759</v>
+      </c>
+      <c r="N31">
+        <v>0.9927389602227759</v>
+      </c>
+      <c r="O31">
+        <v>0.9915789347438594</v>
+      </c>
+      <c r="P31">
+        <v>0.9967404533434058</v>
+      </c>
+      <c r="Q31">
+        <v>0.9967404533434058</v>
+      </c>
+      <c r="R31">
+        <v>0.9987411999037206</v>
+      </c>
+      <c r="S31">
+        <v>0.9987411999037206</v>
+      </c>
+      <c r="T31">
+        <v>0.9995891425915908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9530421991780824</v>
+      </c>
+      <c r="D32">
+        <v>1.012012602739726</v>
+      </c>
+      <c r="E32">
+        <v>0.9530421991780824</v>
+      </c>
+      <c r="F32">
+        <v>1.011587702739726</v>
+      </c>
+      <c r="G32">
+        <v>1.011711586301369</v>
+      </c>
+      <c r="H32">
+        <v>0.9742715441095892</v>
+      </c>
+      <c r="I32">
+        <v>1.030819593150685</v>
+      </c>
+      <c r="J32">
+        <v>1.012012602739726</v>
+      </c>
+      <c r="K32">
+        <v>1.012012602739726</v>
+      </c>
+      <c r="L32">
+        <v>1.011587702739726</v>
+      </c>
+      <c r="M32">
+        <v>0.9823149509589044</v>
+      </c>
+      <c r="N32">
+        <v>0.9823149509589044</v>
+      </c>
+      <c r="O32">
+        <v>0.9796338153424661</v>
+      </c>
+      <c r="P32">
+        <v>0.9922141682191784</v>
+      </c>
+      <c r="Q32">
+        <v>0.9922141682191784</v>
+      </c>
+      <c r="R32">
+        <v>0.9971637768493155</v>
+      </c>
+      <c r="S32">
+        <v>0.9971637768493155</v>
+      </c>
+      <c r="T32">
+        <v>0.9989075380365299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9789464442105263</v>
+      </c>
+      <c r="D33">
+        <v>1.005166715263158</v>
+      </c>
+      <c r="E33">
+        <v>0.9789464442105263</v>
+      </c>
+      <c r="F33">
+        <v>1.005317100526316</v>
+      </c>
+      <c r="G33">
+        <v>1.005273256842105</v>
+      </c>
+      <c r="H33">
+        <v>0.9883857400000002</v>
+      </c>
+      <c r="I33">
+        <v>1.014207585263158</v>
+      </c>
+      <c r="J33">
+        <v>1.005166715263158</v>
+      </c>
+      <c r="K33">
+        <v>1.005166715263158</v>
+      </c>
+      <c r="L33">
+        <v>1.005317100526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9921317723684211</v>
+      </c>
+      <c r="N33">
+        <v>0.9921317723684211</v>
+      </c>
+      <c r="O33">
+        <v>0.9908830949122809</v>
+      </c>
+      <c r="P33">
+        <v>0.9964767533333333</v>
+      </c>
+      <c r="Q33">
+        <v>0.9964767533333333</v>
+      </c>
+      <c r="R33">
+        <v>0.9986492438157895</v>
+      </c>
+      <c r="S33">
+        <v>0.9986492438157895</v>
+      </c>
+      <c r="T33">
+        <v>0.9995494736842105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9789471784210527</v>
+      </c>
+      <c r="D34">
+        <v>1.005166524210526</v>
+      </c>
+      <c r="E34">
+        <v>0.9789471784210527</v>
+      </c>
+      <c r="F34">
+        <v>1.005316917894737</v>
+      </c>
+      <c r="G34">
+        <v>1.005273068421053</v>
+      </c>
+      <c r="H34">
+        <v>0.9883861500000001</v>
+      </c>
+      <c r="I34">
+        <v>1.014207098421053</v>
+      </c>
+      <c r="J34">
+        <v>1.005166524210526</v>
+      </c>
+      <c r="K34">
+        <v>1.005166524210526</v>
+      </c>
+      <c r="L34">
+        <v>1.005316917894737</v>
+      </c>
+      <c r="M34">
+        <v>0.9921320481578948</v>
+      </c>
+      <c r="N34">
+        <v>0.9921320481578948</v>
+      </c>
+      <c r="O34">
+        <v>0.9908834154385966</v>
+      </c>
+      <c r="P34">
+        <v>0.996476873508772</v>
+      </c>
+      <c r="Q34">
+        <v>0.9964768735087719</v>
+      </c>
+      <c r="R34">
+        <v>0.9986492861842104</v>
+      </c>
+      <c r="S34">
+        <v>0.9986492861842104</v>
+      </c>
+      <c r="T34">
+        <v>0.9995494895614035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9292360281937003</v>
+      </c>
+      <c r="D35">
+        <v>1.01721129632422</v>
+      </c>
+      <c r="E35">
+        <v>0.9292360281937003</v>
+      </c>
+      <c r="F35">
+        <v>1.017957486405194</v>
+      </c>
+      <c r="G35">
+        <v>1.017739930601213</v>
+      </c>
+      <c r="H35">
+        <v>0.960907119245351</v>
+      </c>
+      <c r="I35">
+        <v>1.048028827930024</v>
+      </c>
+      <c r="J35">
+        <v>1.01721129632422</v>
+      </c>
+      <c r="K35">
+        <v>1.01721129632422</v>
+      </c>
+      <c r="L35">
+        <v>1.017957486405194</v>
+      </c>
+      <c r="M35">
+        <v>0.9735967572994471</v>
+      </c>
+      <c r="N35">
+        <v>0.9735967572994471</v>
+      </c>
+      <c r="O35">
+        <v>0.9693668779480817</v>
+      </c>
+      <c r="P35">
+        <v>0.9881349369743715</v>
+      </c>
+      <c r="Q35">
+        <v>0.9881349369743715</v>
+      </c>
+      <c r="R35">
+        <v>0.9954040268118337</v>
+      </c>
+      <c r="S35">
+        <v>0.9954040268118337</v>
+      </c>
+      <c r="T35">
+        <v>0.9985134481166172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999923324773154</v>
+      </c>
+      <c r="D36">
+        <v>1.000000956107217</v>
+      </c>
+      <c r="E36">
+        <v>0.9999923324773154</v>
+      </c>
+      <c r="F36">
+        <v>1.000002452754069</v>
+      </c>
+      <c r="G36">
+        <v>1.000002015844742</v>
+      </c>
+      <c r="H36">
+        <v>0.9999954369816845</v>
+      </c>
+      <c r="I36">
+        <v>1.000006821768797</v>
+      </c>
+      <c r="J36">
+        <v>1.000000956107217</v>
+      </c>
+      <c r="K36">
+        <v>1.000000956107217</v>
+      </c>
+      <c r="L36">
+        <v>1.000002452754069</v>
+      </c>
+      <c r="M36">
+        <v>0.9999973926156921</v>
+      </c>
+      <c r="N36">
+        <v>0.9999973926156921</v>
+      </c>
+      <c r="O36">
+        <v>0.9999967407376896</v>
+      </c>
+      <c r="P36">
+        <v>0.9999985804462002</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999985804462002</v>
+      </c>
+      <c r="R36">
+        <v>0.9999991743614542</v>
+      </c>
+      <c r="S36">
+        <v>0.9999991743614542</v>
+      </c>
+      <c r="T36">
+        <v>1.000000002655637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998229840661341</v>
+      </c>
+      <c r="D37">
+        <v>1.000044032291963</v>
+      </c>
+      <c r="E37">
+        <v>0.9998229840661341</v>
+      </c>
+      <c r="F37">
+        <v>1.000044379076635</v>
+      </c>
+      <c r="G37">
+        <v>1.000044277443791</v>
+      </c>
+      <c r="H37">
+        <v>0.9999025616811347</v>
+      </c>
+      <c r="I37">
+        <v>1.000118405284319</v>
+      </c>
+      <c r="J37">
+        <v>1.000044032291963</v>
+      </c>
+      <c r="K37">
+        <v>1.000044032291963</v>
+      </c>
+      <c r="L37">
+        <v>1.000044379076635</v>
+      </c>
+      <c r="M37">
+        <v>0.9999336815713847</v>
+      </c>
+      <c r="N37">
+        <v>0.9999336815713847</v>
+      </c>
+      <c r="O37">
+        <v>0.9999233082746347</v>
+      </c>
+      <c r="P37">
+        <v>0.9999704651449108</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999704651449108</v>
+      </c>
+      <c r="R37">
+        <v>0.9999888569316739</v>
+      </c>
+      <c r="S37">
+        <v>0.9999888569316739</v>
+      </c>
+      <c r="T37">
+        <v>0.9999961066406629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9993746272232763</v>
+      </c>
+      <c r="D38">
+        <v>1.000158529607256</v>
+      </c>
+      <c r="E38">
+        <v>0.9993746272232763</v>
+      </c>
+      <c r="F38">
+        <v>1.0001551329021</v>
+      </c>
+      <c r="G38">
+        <v>1.000156120289851</v>
+      </c>
+      <c r="H38">
+        <v>0.9996568307749955</v>
+      </c>
+      <c r="I38">
+        <v>1.000413030716101</v>
+      </c>
+      <c r="J38">
+        <v>1.000158529607256</v>
+      </c>
+      <c r="K38">
+        <v>1.000158529607256</v>
+      </c>
+      <c r="L38">
+        <v>1.0001551329021</v>
+      </c>
+      <c r="M38">
+        <v>0.9997648800626884</v>
+      </c>
+      <c r="N38">
+        <v>0.9997648800626884</v>
+      </c>
+      <c r="O38">
+        <v>0.9997288636334574</v>
+      </c>
+      <c r="P38">
+        <v>0.9998960965775444</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998960965775443</v>
+      </c>
+      <c r="R38">
+        <v>0.9999617048349723</v>
+      </c>
+      <c r="S38">
+        <v>0.9999617048349723</v>
+      </c>
+      <c r="T38">
+        <v>0.99998571191893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9985326710935722</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000375061408892</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9985326710935722</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000362259900161</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000365992608946</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9991959288129899</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000963586469181</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000375061408892</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000375061408892</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000362259900161</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9994474654968667</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9994474654968667</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9993636199355743</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997566641342086</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9997566641342086</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999112634528795</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999112634528795</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999659167156237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9933250372925055</v>
+      </c>
+      <c r="D40">
+        <v>1.001690119761967</v>
+      </c>
+      <c r="E40">
+        <v>0.9933250372925055</v>
+      </c>
+      <c r="F40">
+        <v>1.001656866808929</v>
+      </c>
+      <c r="G40">
+        <v>1.001666559064383</v>
+      </c>
+      <c r="H40">
+        <v>0.9963364671124226</v>
+      </c>
+      <c r="I40">
+        <v>1.004411972149264</v>
+      </c>
+      <c r="J40">
+        <v>1.001690119761967</v>
+      </c>
+      <c r="K40">
+        <v>1.001690119761967</v>
+      </c>
+      <c r="L40">
+        <v>1.001656866808929</v>
+      </c>
+      <c r="M40">
+        <v>0.9974909520507173</v>
+      </c>
+      <c r="N40">
+        <v>0.9974909520507173</v>
+      </c>
+      <c r="O40">
+        <v>0.9971061237379524</v>
+      </c>
+      <c r="P40">
+        <v>0.998890674621134</v>
+      </c>
+      <c r="Q40">
+        <v>0.998890674621134</v>
+      </c>
+      <c r="R40">
+        <v>0.9995905359063424</v>
+      </c>
+      <c r="S40">
+        <v>0.9995905359063424</v>
+      </c>
+      <c r="T40">
+        <v>0.9998478370315785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.003906232415796</v>
+      </c>
+      <c r="D41">
+        <v>0.9990260471295299</v>
+      </c>
+      <c r="E41">
+        <v>1.003906232415796</v>
+      </c>
+      <c r="F41">
+        <v>0.9990219971447474</v>
+      </c>
+      <c r="G41">
+        <v>0.9990231773936356</v>
+      </c>
+      <c r="H41">
+        <v>1.002149365943147</v>
+      </c>
+      <c r="I41">
+        <v>0.9973912151778619</v>
+      </c>
+      <c r="J41">
+        <v>0.9990260471295299</v>
+      </c>
+      <c r="K41">
+        <v>0.9990260471295299</v>
+      </c>
+      <c r="L41">
+        <v>0.9990219971447474</v>
+      </c>
+      <c r="M41">
+        <v>1.001464114780271</v>
+      </c>
+      <c r="N41">
+        <v>1.001464114780271</v>
+      </c>
+      <c r="O41">
+        <v>1.001692531834563</v>
+      </c>
+      <c r="P41">
+        <v>1.000651425563358</v>
+      </c>
+      <c r="Q41">
+        <v>1.000651425563358</v>
+      </c>
+      <c r="R41">
+        <v>1.000245080954901</v>
+      </c>
+      <c r="S41">
+        <v>1.000245080954901</v>
+      </c>
+      <c r="T41">
+        <v>1.000086339200786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9740426933560344</v>
+      </c>
+      <c r="D42">
+        <v>1.006567396997193</v>
+      </c>
+      <c r="E42">
+        <v>0.9740426933560344</v>
+      </c>
+      <c r="F42">
+        <v>1.006445959746707</v>
+      </c>
+      <c r="G42">
+        <v>1.006481361502227</v>
+      </c>
+      <c r="H42">
+        <v>0.9857515859430476</v>
+      </c>
+      <c r="I42">
+        <v>1.017166083948704</v>
+      </c>
+      <c r="J42">
+        <v>1.006567396997193</v>
+      </c>
+      <c r="K42">
+        <v>1.006567396997193</v>
+      </c>
+      <c r="L42">
+        <v>1.006445959746707</v>
+      </c>
+      <c r="M42">
+        <v>0.990244326551371</v>
+      </c>
+      <c r="N42">
+        <v>0.990244326551371</v>
+      </c>
+      <c r="O42">
+        <v>0.9887467463485965</v>
+      </c>
+      <c r="P42">
+        <v>0.9956853500333116</v>
+      </c>
+      <c r="Q42">
+        <v>0.9956853500333116</v>
+      </c>
+      <c r="R42">
+        <v>0.9984058617742819</v>
+      </c>
+      <c r="S42">
+        <v>0.9984058617742819</v>
+      </c>
+      <c r="T42">
+        <v>0.9994091802489856</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000519173538077</v>
+        <v>0.9996333272564112</v>
       </c>
       <c r="D3">
-        <v>0.9979662088770517</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="E3">
-        <v>1.000502491316748</v>
+        <v>0.9996333272564112</v>
       </c>
       <c r="F3">
-        <v>1.000519173538077</v>
+        <v>1.000092798967011</v>
       </c>
       <c r="G3">
-        <v>1.001336794104749</v>
+        <v>1.000091876400415</v>
       </c>
       <c r="H3">
-        <v>0.9988852763082071</v>
+        <v>0.9997975982453919</v>
       </c>
       <c r="I3">
-        <v>1.000507354288271</v>
+        <v>1.000248062990082</v>
       </c>
       <c r="J3">
-        <v>0.9979662088770517</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="K3">
-        <v>1.000519173538077</v>
+        <v>1.000089636547123</v>
       </c>
       <c r="L3">
-        <v>1.000502491316748</v>
+        <v>1.000092798967011</v>
       </c>
       <c r="M3">
-        <v>0.9992343500969001</v>
+        <v>0.9998630631117114</v>
       </c>
       <c r="N3">
-        <v>0.9992343500969001</v>
+        <v>0.9998630631117114</v>
       </c>
       <c r="O3">
-        <v>0.9991179921673358</v>
+        <v>0.9998412414896048</v>
       </c>
       <c r="P3">
-        <v>0.9996626245772925</v>
+        <v>0.9999385875901819</v>
       </c>
       <c r="Q3">
-        <v>0.9996626245772925</v>
+        <v>0.9999385875901817</v>
       </c>
       <c r="R3">
-        <v>0.9998767618174886</v>
+        <v>0.9999763498294171</v>
       </c>
       <c r="S3">
-        <v>0.9998767618174886</v>
+        <v>0.9999763498294171</v>
       </c>
       <c r="T3">
-        <v>0.9999528830721841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999922167344057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00100215435149</v>
+        <v>0.9933250372925055</v>
       </c>
       <c r="D4">
-        <v>0.9960738555827247</v>
+        <v>1.001690119761967</v>
       </c>
       <c r="E4">
-        <v>1.000970083766126</v>
+        <v>0.9933250372925055</v>
       </c>
       <c r="F4">
-        <v>1.00100215435149</v>
+        <v>1.001656866808929</v>
       </c>
       <c r="G4">
-        <v>1.002580776279932</v>
+        <v>1.001666559064383</v>
       </c>
       <c r="H4">
-        <v>0.997848041482815</v>
+        <v>0.9963364671124226</v>
       </c>
       <c r="I4">
-        <v>1.000979431247661</v>
+        <v>1.004411972149264</v>
       </c>
       <c r="J4">
-        <v>0.9960738555827247</v>
+        <v>1.001690119761967</v>
       </c>
       <c r="K4">
-        <v>1.00100215435149</v>
+        <v>1.001690119761967</v>
       </c>
       <c r="L4">
-        <v>1.000970083766126</v>
+        <v>1.001656866808929</v>
       </c>
       <c r="M4">
-        <v>0.9985219696744252</v>
+        <v>0.9974909520507173</v>
       </c>
       <c r="N4">
-        <v>0.9985219696744252</v>
+        <v>0.9974909520507173</v>
       </c>
       <c r="O4">
-        <v>0.9982973269438885</v>
+        <v>0.9971061237379524</v>
       </c>
       <c r="P4">
-        <v>0.9993486979001135</v>
+        <v>0.998890674621134</v>
       </c>
       <c r="Q4">
-        <v>0.9993486979001135</v>
+        <v>0.998890674621134</v>
       </c>
       <c r="R4">
-        <v>0.9997620620129577</v>
+        <v>0.9995905359063424</v>
       </c>
       <c r="S4">
-        <v>0.9997620620129577</v>
+        <v>0.9995905359063424</v>
       </c>
       <c r="T4">
-        <v>0.999909057118458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9998478370315785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001918430781018</v>
+        <v>0.9788724654106628</v>
       </c>
       <c r="D5">
-        <v>0.9924773028601389</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="E5">
-        <v>1.001859699549799</v>
+        <v>0.9788724654106628</v>
       </c>
       <c r="F5">
-        <v>1.001918430781018</v>
+        <v>1.005335904625357</v>
       </c>
       <c r="G5">
-        <v>1.004948008994659</v>
+        <v>1.005291805576372</v>
       </c>
       <c r="H5">
-        <v>0.9958761093306499</v>
+        <v>0.9883448500072065</v>
       </c>
       <c r="I5">
-        <v>1.001876822011049</v>
+        <v>1.014257897226226</v>
       </c>
       <c r="J5">
-        <v>0.9924773028601389</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="K5">
-        <v>1.001918430781018</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="L5">
-        <v>1.001859699549799</v>
+        <v>1.005335904625357</v>
       </c>
       <c r="M5">
-        <v>0.9971685012049689</v>
+        <v>0.9921041850180099</v>
       </c>
       <c r="N5">
-        <v>0.9971685012049689</v>
+        <v>0.9921041850180099</v>
       </c>
       <c r="O5">
-        <v>0.9967377039135292</v>
+        <v>0.9908510733477421</v>
       </c>
       <c r="P5">
-        <v>0.9987518110636519</v>
+        <v>0.9964643386623434</v>
       </c>
       <c r="Q5">
-        <v>0.9987518110636519</v>
+        <v>0.9964643386623432</v>
       </c>
       <c r="R5">
-        <v>0.9995434659929934</v>
+        <v>0.99864441548451</v>
       </c>
       <c r="S5">
-        <v>0.9995434659929934</v>
+        <v>0.99864441548451</v>
       </c>
       <c r="T5">
-        <v>0.9998260622545524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9995479281328058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002812610824961</v>
+        <v>0.9292360281937003</v>
       </c>
       <c r="D6">
-        <v>0.9889672911668901</v>
+        <v>1.01721129632422</v>
       </c>
       <c r="E6">
-        <v>1.002727936453988</v>
+        <v>0.9292360281937003</v>
       </c>
       <c r="F6">
-        <v>1.002812610824961</v>
+        <v>1.017957486405194</v>
       </c>
       <c r="G6">
-        <v>1.007258366876809</v>
+        <v>1.017739930601213</v>
       </c>
       <c r="H6">
-        <v>0.9939516044727861</v>
+        <v>0.960907119245351</v>
       </c>
       <c r="I6">
-        <v>1.002752630564145</v>
+        <v>1.048028827930024</v>
       </c>
       <c r="J6">
-        <v>0.9889672911668901</v>
+        <v>1.01721129632422</v>
       </c>
       <c r="K6">
-        <v>1.002812610824961</v>
+        <v>1.01721129632422</v>
       </c>
       <c r="L6">
-        <v>1.002727936453988</v>
+        <v>1.017957486405194</v>
       </c>
       <c r="M6">
-        <v>0.9958476138104391</v>
+        <v>0.9735967572994471</v>
       </c>
       <c r="N6">
-        <v>0.9958476138104391</v>
+        <v>0.9735967572994471</v>
       </c>
       <c r="O6">
-        <v>0.9952156106978881</v>
+        <v>0.9693668779480817</v>
       </c>
       <c r="P6">
-        <v>0.9981692794819463</v>
+        <v>0.9881349369743715</v>
       </c>
       <c r="Q6">
-        <v>0.9981692794819463</v>
+        <v>0.9881349369743715</v>
       </c>
       <c r="R6">
-        <v>0.9993301123177</v>
+        <v>0.9954040268118337</v>
       </c>
       <c r="S6">
-        <v>0.9993301123177</v>
+        <v>0.9954040268118337</v>
       </c>
       <c r="T6">
-        <v>0.999745073393263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9985134481166172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00003507984634</v>
+        <v>0.997779731588589</v>
       </c>
       <c r="D7">
-        <v>0.9998561946130334</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="E7">
-        <v>1.000036437639962</v>
+        <v>0.997779731588589</v>
       </c>
       <c r="F7">
-        <v>1.00003507984634</v>
+        <v>1.000548787552965</v>
       </c>
       <c r="G7">
-        <v>1.000097421890676</v>
+        <v>1.0005539141017</v>
       </c>
       <c r="H7">
-        <v>0.9999205932497656</v>
+        <v>0.9987829235572675</v>
       </c>
       <c r="I7">
-        <v>1.000036041250462</v>
+        <v>1.001460075899733</v>
       </c>
       <c r="J7">
-        <v>0.9998561946130334</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="K7">
-        <v>1.00003507984634</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="L7">
-        <v>1.000036437639962</v>
+        <v>1.000548787552965</v>
       </c>
       <c r="M7">
-        <v>0.9999463161264974</v>
+        <v>0.9991642595707771</v>
       </c>
       <c r="N7">
-        <v>0.9999463161264974</v>
+        <v>0.9991642595707771</v>
       </c>
       <c r="O7">
-        <v>0.9999377418342535</v>
+        <v>0.9990371475662739</v>
       </c>
       <c r="P7">
-        <v>0.9999759040331117</v>
+        <v>0.9996316314507344</v>
       </c>
       <c r="Q7">
-        <v>0.9999759040331119</v>
+        <v>0.9996316314507344</v>
       </c>
       <c r="R7">
-        <v>0.9999906979864189</v>
+        <v>0.999865317390713</v>
       </c>
       <c r="S7">
-        <v>0.9999906979864189</v>
+        <v>0.999865317390713</v>
       </c>
       <c r="T7">
-        <v>0.9999969614150399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999486346518172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000089636547123</v>
+        <v>0.9998229840661341</v>
       </c>
       <c r="D8">
-        <v>0.9996333272564113</v>
+        <v>1.000044032291963</v>
       </c>
       <c r="E8">
-        <v>1.000092798967011</v>
+        <v>0.9998229840661341</v>
       </c>
       <c r="F8">
-        <v>1.000089636547123</v>
+        <v>1.000044379076635</v>
       </c>
       <c r="G8">
-        <v>1.000248062990082</v>
+        <v>1.000044277443791</v>
       </c>
       <c r="H8">
-        <v>0.9997975982453919</v>
+        <v>0.9999025616811347</v>
       </c>
       <c r="I8">
-        <v>1.000091876400414</v>
+        <v>1.000118405284319</v>
       </c>
       <c r="J8">
-        <v>0.9996333272564113</v>
+        <v>1.000044032291963</v>
       </c>
       <c r="K8">
-        <v>1.000089636547123</v>
+        <v>1.000044032291963</v>
       </c>
       <c r="L8">
-        <v>1.000092798967011</v>
+        <v>1.000044379076635</v>
       </c>
       <c r="M8">
-        <v>0.9998630631117114</v>
+        <v>0.9999336815713847</v>
       </c>
       <c r="N8">
-        <v>0.9998630631117114</v>
+        <v>0.9999336815713847</v>
       </c>
       <c r="O8">
-        <v>0.9998412414896048</v>
+        <v>0.9999233082746347</v>
       </c>
       <c r="P8">
-        <v>0.9999385875901819</v>
+        <v>0.9999704651449108</v>
       </c>
       <c r="Q8">
-        <v>0.9999385875901819</v>
+        <v>0.9999704651449108</v>
       </c>
       <c r="R8">
-        <v>0.9999763498294172</v>
+        <v>0.9999888569316739</v>
       </c>
       <c r="S8">
-        <v>0.9999763498294172</v>
+        <v>0.9999888569316739</v>
       </c>
       <c r="T8">
-        <v>0.9999922167344056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999961066406629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000126040956326</v>
+        <v>0.9960738555827247</v>
       </c>
       <c r="D9">
-        <v>0.9994862742495573</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="E9">
-        <v>1.000129761554459</v>
+        <v>0.9960738555827247</v>
       </c>
       <c r="F9">
-        <v>1.000126040956326</v>
+        <v>1.000970083766126</v>
       </c>
       <c r="G9">
-        <v>1.000346734840068</v>
+        <v>1.000979431247661</v>
       </c>
       <c r="H9">
-        <v>0.9997165906780165</v>
+        <v>0.997848041482815</v>
       </c>
       <c r="I9">
-        <v>1.000128675943995</v>
+        <v>1.002580776279932</v>
       </c>
       <c r="J9">
-        <v>0.9994862742495573</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="K9">
-        <v>1.000126040956326</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="L9">
-        <v>1.000129761554459</v>
+        <v>1.000970083766126</v>
       </c>
       <c r="M9">
-        <v>0.9998080179020081</v>
+        <v>0.9985219696744252</v>
       </c>
       <c r="N9">
-        <v>0.9998080179020081</v>
+        <v>0.9985219696744252</v>
       </c>
       <c r="O9">
-        <v>0.9997775421606776</v>
+        <v>0.9982973269438885</v>
       </c>
       <c r="P9">
-        <v>0.9999140255867808</v>
+        <v>0.9993486979001135</v>
       </c>
       <c r="Q9">
-        <v>0.9999140255867808</v>
+        <v>0.9993486979001135</v>
       </c>
       <c r="R9">
-        <v>0.9999670294291672</v>
+        <v>0.9997620620129577</v>
       </c>
       <c r="S9">
-        <v>0.9999670294291672</v>
+        <v>0.9997620620129577</v>
       </c>
       <c r="T9">
-        <v>0.9999890130370703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.999909057118458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000271163467615</v>
+        <v>0.9281884950456283</v>
       </c>
       <c r="D10">
-        <v>0.9988926606350949</v>
+        <v>1.01745822276095</v>
       </c>
       <c r="E10">
-        <v>1.000279988280974</v>
+        <v>0.9281884950456283</v>
       </c>
       <c r="F10">
-        <v>1.000271163467615</v>
+        <v>1.018227677294778</v>
       </c>
       <c r="G10">
-        <v>1.000748313016744</v>
+        <v>1.018003339408839</v>
       </c>
       <c r="H10">
-        <v>0.9993889209955235</v>
+        <v>0.960325592168311</v>
       </c>
       <c r="I10">
-        <v>1.000277415410405</v>
+        <v>1.048753772800747</v>
       </c>
       <c r="J10">
-        <v>0.9988926606350949</v>
+        <v>1.01745822276095</v>
       </c>
       <c r="K10">
-        <v>1.000271163467615</v>
+        <v>1.01745822276095</v>
       </c>
       <c r="L10">
-        <v>1.000279988280974</v>
+        <v>1.018227677294778</v>
       </c>
       <c r="M10">
-        <v>0.9995863244580345</v>
+        <v>0.9732080861702032</v>
       </c>
       <c r="N10">
-        <v>0.9995863244580345</v>
+        <v>0.9732080861702032</v>
       </c>
       <c r="O10">
-        <v>0.9995205233038642</v>
+        <v>0.9689139215029058</v>
       </c>
       <c r="P10">
-        <v>0.9998146041278947</v>
+        <v>0.9879581317004521</v>
       </c>
       <c r="Q10">
-        <v>0.9998146041278947</v>
+        <v>0.9879581317004521</v>
       </c>
       <c r="R10">
-        <v>0.9999287439628248</v>
+        <v>0.9953331544655766</v>
       </c>
       <c r="S10">
-        <v>0.9999287439628248</v>
+        <v>0.9953331544655766</v>
       </c>
       <c r="T10">
-        <v>0.9999764103010594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9984928499132089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000451123163031</v>
+        <v>0.9936966407655607</v>
       </c>
       <c r="D11">
-        <v>0.998162365830548</v>
+        <v>1.001610969103307</v>
       </c>
       <c r="E11">
-        <v>1.00046401300846</v>
+        <v>0.9936966407655607</v>
       </c>
       <c r="F11">
-        <v>1.000451123163031</v>
+        <v>1.001556326774716</v>
       </c>
       <c r="G11">
-        <v>1.001239820932686</v>
+        <v>1.001572254999657</v>
       </c>
       <c r="H11">
-        <v>0.9989863211045443</v>
+        <v>0.9965457991890155</v>
       </c>
       <c r="I11">
-        <v>1.00046025758527</v>
+        <v>1.004139790740426</v>
       </c>
       <c r="J11">
-        <v>0.998162365830548</v>
+        <v>1.001610969103307</v>
       </c>
       <c r="K11">
-        <v>1.000451123163031</v>
+        <v>1.001610969103307</v>
       </c>
       <c r="L11">
-        <v>1.00046401300846</v>
+        <v>1.001556326774716</v>
       </c>
       <c r="M11">
-        <v>0.9993131894195038</v>
+        <v>0.9976264837701383</v>
       </c>
       <c r="N11">
-        <v>0.9993131894195038</v>
+        <v>0.9976264837701383</v>
       </c>
       <c r="O11">
-        <v>0.9992042333145172</v>
+        <v>0.9972662555764308</v>
       </c>
       <c r="P11">
-        <v>0.9996925006673463</v>
+        <v>0.9989546455478613</v>
       </c>
       <c r="Q11">
-        <v>0.9996925006673463</v>
+        <v>0.9989546455478613</v>
       </c>
       <c r="R11">
-        <v>0.9998821562912675</v>
+        <v>0.9996187264367228</v>
       </c>
       <c r="S11">
-        <v>0.9998821562912675</v>
+        <v>0.9996187264367228</v>
       </c>
       <c r="T11">
-        <v>0.9999606502707565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9998536302621138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9961531790010327</v>
+        <v>0.9784526099368408</v>
       </c>
       <c r="D12">
-        <v>1.01619378562725</v>
+        <v>1.005235199673683</v>
       </c>
       <c r="E12">
-        <v>0.9958395349337442</v>
+        <v>0.9784526099368408</v>
       </c>
       <c r="F12">
-        <v>0.9961531790010327</v>
+        <v>1.005471093599997</v>
       </c>
       <c r="G12">
-        <v>0.9888456942407716</v>
+        <v>1.005402319957898</v>
       </c>
       <c r="H12">
-        <v>1.008979166777254</v>
+        <v>0.9880943428736852</v>
       </c>
       <c r="I12">
-        <v>0.9959309795480384</v>
+        <v>1.014634531052633</v>
       </c>
       <c r="J12">
-        <v>1.01619378562725</v>
+        <v>1.005235199673683</v>
       </c>
       <c r="K12">
-        <v>0.9961531790010327</v>
+        <v>1.005235199673683</v>
       </c>
       <c r="L12">
-        <v>0.9958395349337442</v>
+        <v>1.005471093599997</v>
       </c>
       <c r="M12">
-        <v>1.006016660280497</v>
+        <v>0.991961851768419</v>
       </c>
       <c r="N12">
-        <v>1.006016660280497</v>
+        <v>0.991961851768419</v>
       </c>
       <c r="O12">
-        <v>1.007004162446083</v>
+        <v>0.9906726821368411</v>
       </c>
       <c r="P12">
-        <v>1.002728833187342</v>
+        <v>0.9963863010701736</v>
       </c>
       <c r="Q12">
-        <v>1.002728833187342</v>
+        <v>0.9963863010701736</v>
       </c>
       <c r="R12">
-        <v>1.001084919640765</v>
+        <v>0.9985985257210509</v>
       </c>
       <c r="S12">
-        <v>1.001084919640765</v>
+        <v>0.9985985257210509</v>
       </c>
       <c r="T12">
-        <v>1.000323723354682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9995483495157895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988435297029158</v>
+        <v>1.014181884335376</v>
       </c>
       <c r="D13">
-        <v>1.004281512278193</v>
+        <v>0.9964714707236452</v>
       </c>
       <c r="E13">
-        <v>0.9989774543220438</v>
+        <v>1.014181884335376</v>
       </c>
       <c r="F13">
-        <v>0.9988435297029158</v>
+        <v>0.9964451151612861</v>
       </c>
       <c r="G13">
-        <v>0.9972987184543198</v>
+        <v>0.9964527992716725</v>
       </c>
       <c r="H13">
-        <v>1.002323840243186</v>
+        <v>1.007806137701317</v>
       </c>
       <c r="I13">
-        <v>0.9989384095331948</v>
+        <v>0.9905152883122926</v>
       </c>
       <c r="J13">
-        <v>1.004281512278193</v>
+        <v>0.9964714707236452</v>
       </c>
       <c r="K13">
-        <v>0.9988435297029158</v>
+        <v>0.9964714707236452</v>
       </c>
       <c r="L13">
-        <v>0.9989774543220438</v>
+        <v>0.9964451151612861</v>
       </c>
       <c r="M13">
-        <v>1.001629483300118</v>
+        <v>1.005313499748331</v>
       </c>
       <c r="N13">
-        <v>1.001629483300118</v>
+        <v>1.005313499748331</v>
       </c>
       <c r="O13">
-        <v>1.001860935614474</v>
+        <v>1.006144379065993</v>
       </c>
       <c r="P13">
-        <v>1.000700832101051</v>
+        <v>1.002366156740103</v>
       </c>
       <c r="Q13">
-        <v>1.000700832101051</v>
+        <v>1.002366156740102</v>
       </c>
       <c r="R13">
-        <v>1.000236506501517</v>
+        <v>1.000892485235988</v>
       </c>
       <c r="S13">
-        <v>1.000236506501517</v>
+        <v>1.000892485235988</v>
       </c>
       <c r="T13">
-        <v>1.000110577422309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000312115917598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9961534253400083</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="D14">
-        <v>1.016192791675805</v>
+        <v>1.0301398</v>
       </c>
       <c r="E14">
-        <v>0.9958397955921674</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="F14">
-        <v>0.9961534253400083</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="G14">
-        <v>0.9888463568737659</v>
+        <v>1.031103000000001</v>
       </c>
       <c r="H14">
-        <v>1.008978614400679</v>
+        <v>0.9314548999999992</v>
       </c>
       <c r="I14">
-        <v>0.9959312205833203</v>
+        <v>1.084257500000001</v>
       </c>
       <c r="J14">
-        <v>1.016192791675805</v>
+        <v>1.0301398</v>
       </c>
       <c r="K14">
-        <v>0.9961534253400083</v>
+        <v>1.0301398</v>
       </c>
       <c r="L14">
-        <v>0.9958397955921674</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="M14">
-        <v>1.006016293633986</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="N14">
-        <v>1.006016293633986</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="O14">
-        <v>1.007003733889551</v>
+        <v>0.9462996533333339</v>
       </c>
       <c r="P14">
-        <v>1.002728670869327</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="Q14">
-        <v>1.002728670869327</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="R14">
-        <v>1.001084859486997</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="S14">
-        <v>1.001084859486997</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="T14">
-        <v>1.000323700744291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9973998766666675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9988435949106167</v>
+        <v>0.95304146</v>
       </c>
       <c r="D15">
-        <v>1.004281246458286</v>
+        <v>1.0120128</v>
       </c>
       <c r="E15">
-        <v>0.9989775219174646</v>
+        <v>0.95304146</v>
       </c>
       <c r="F15">
-        <v>0.9988435949106167</v>
+        <v>1.0115879</v>
       </c>
       <c r="G15">
-        <v>0.9972988951839029</v>
+        <v>1.0117118</v>
       </c>
       <c r="H15">
-        <v>1.002323695021608</v>
+        <v>0.97427114</v>
       </c>
       <c r="I15">
-        <v>0.998938474581294</v>
+        <v>1.0308201</v>
       </c>
       <c r="J15">
-        <v>1.004281246458286</v>
+        <v>1.0120128</v>
       </c>
       <c r="K15">
-        <v>0.9988435949106167</v>
+        <v>1.0120128</v>
       </c>
       <c r="L15">
-        <v>0.9989775219174646</v>
+        <v>1.0115879</v>
       </c>
       <c r="M15">
-        <v>1.001629384187875</v>
+        <v>0.98231468</v>
       </c>
       <c r="N15">
-        <v>1.001629384187875</v>
+        <v>0.98231468</v>
       </c>
       <c r="O15">
-        <v>1.001860821132453</v>
+        <v>0.9796334999999999</v>
       </c>
       <c r="P15">
-        <v>1.000700787762122</v>
+        <v>0.9922140533333333</v>
       </c>
       <c r="Q15">
-        <v>1.000700787762122</v>
+        <v>0.9922140533333333</v>
       </c>
       <c r="R15">
-        <v>1.000236489549246</v>
+        <v>0.99716374</v>
       </c>
       <c r="S15">
-        <v>1.000236489549246</v>
+        <v>0.99716374</v>
       </c>
       <c r="T15">
-        <v>1.000110571345529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9989075333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000956107217</v>
+        <v>0.9530437</v>
       </c>
       <c r="D16">
-        <v>0.9999923324773154</v>
+        <v>1.0120122</v>
       </c>
       <c r="E16">
-        <v>1.000002452754069</v>
+        <v>0.9530437</v>
       </c>
       <c r="F16">
-        <v>1.000000956107217</v>
+        <v>1.0115873</v>
       </c>
       <c r="G16">
-        <v>1.000006821768797</v>
+        <v>1.0117112</v>
       </c>
       <c r="H16">
-        <v>0.9999954369816845</v>
+        <v>0.97427237</v>
       </c>
       <c r="I16">
-        <v>1.000002015844742</v>
+        <v>1.0308186</v>
       </c>
       <c r="J16">
-        <v>0.9999923324773154</v>
+        <v>1.0120122</v>
       </c>
       <c r="K16">
-        <v>1.000000956107217</v>
+        <v>1.0120122</v>
       </c>
       <c r="L16">
-        <v>1.000002452754069</v>
+        <v>1.0115873</v>
       </c>
       <c r="M16">
-        <v>0.9999973926156921</v>
+        <v>0.9823155</v>
       </c>
       <c r="N16">
-        <v>0.9999973926156921</v>
+        <v>0.9823155</v>
       </c>
       <c r="O16">
-        <v>0.9999967407376896</v>
+        <v>0.9796344566666667</v>
       </c>
       <c r="P16">
-        <v>0.9999985804462002</v>
+        <v>0.9922143999999999</v>
       </c>
       <c r="Q16">
-        <v>0.9999985804462002</v>
+        <v>0.9922143999999999</v>
       </c>
       <c r="R16">
-        <v>0.9999991743614542</v>
+        <v>0.99716385</v>
       </c>
       <c r="S16">
-        <v>0.9999991743614542</v>
+        <v>0.99716385</v>
       </c>
       <c r="T16">
-        <v>1.000000002655637</v>
+        <v>0.9989075616666665</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000044032291963</v>
+        <v>1.0362486</v>
       </c>
       <c r="D17">
-        <v>0.9998229840661341</v>
+        <v>0.99065531</v>
       </c>
       <c r="E17">
-        <v>1.000044379076636</v>
+        <v>1.0362486</v>
       </c>
       <c r="F17">
-        <v>1.000044032291963</v>
+        <v>0.99109483</v>
       </c>
       <c r="G17">
-        <v>1.000118405284318</v>
+        <v>0.99096669</v>
       </c>
       <c r="H17">
-        <v>0.9999025616811347</v>
+        <v>1.019835</v>
       </c>
       <c r="I17">
-        <v>1.000044277443791</v>
+        <v>0.9763365899999999</v>
       </c>
       <c r="J17">
-        <v>0.9998229840661341</v>
+        <v>0.99065531</v>
       </c>
       <c r="K17">
-        <v>1.000044032291963</v>
+        <v>0.99065531</v>
       </c>
       <c r="L17">
-        <v>1.000044379076636</v>
+        <v>0.99109483</v>
       </c>
       <c r="M17">
-        <v>0.9999336815713848</v>
+        <v>1.013671715</v>
       </c>
       <c r="N17">
-        <v>0.9999336815713848</v>
+        <v>1.013671715</v>
       </c>
       <c r="O17">
-        <v>0.9999233082746347</v>
+        <v>1.015726143333333</v>
       </c>
       <c r="P17">
-        <v>0.9999704651449109</v>
+        <v>1.00599958</v>
       </c>
       <c r="Q17">
-        <v>0.9999704651449109</v>
+        <v>1.00599958</v>
       </c>
       <c r="R17">
-        <v>0.9999888569316739</v>
+        <v>1.0021635125</v>
       </c>
       <c r="S17">
-        <v>0.9999888569316739</v>
+        <v>1.0021635125</v>
       </c>
       <c r="T17">
-        <v>0.9999961066406629</v>
+        <v>1.00085617</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000158529607256</v>
+        <v>0.9530421991780824</v>
       </c>
       <c r="D18">
-        <v>0.9993746272232763</v>
+        <v>1.012012602739726</v>
       </c>
       <c r="E18">
-        <v>1.0001551329021</v>
+        <v>0.9530421991780824</v>
       </c>
       <c r="F18">
-        <v>1.000158529607256</v>
+        <v>1.011587702739726</v>
       </c>
       <c r="G18">
-        <v>1.000413030716101</v>
+        <v>1.011711586301369</v>
       </c>
       <c r="H18">
-        <v>0.9996568307749955</v>
+        <v>0.9742715441095892</v>
       </c>
       <c r="I18">
-        <v>1.000156120289851</v>
+        <v>1.030819593150685</v>
       </c>
       <c r="J18">
-        <v>0.9993746272232763</v>
+        <v>1.012012602739726</v>
       </c>
       <c r="K18">
-        <v>1.000158529607256</v>
+        <v>1.012012602739726</v>
       </c>
       <c r="L18">
-        <v>1.0001551329021</v>
+        <v>1.011587702739726</v>
       </c>
       <c r="M18">
-        <v>0.9997648800626884</v>
+        <v>0.9823149509589044</v>
       </c>
       <c r="N18">
-        <v>0.9997648800626884</v>
+        <v>0.9823149509589044</v>
       </c>
       <c r="O18">
-        <v>0.9997288636334574</v>
+        <v>0.9796338153424661</v>
       </c>
       <c r="P18">
-        <v>0.9998960965775444</v>
+        <v>0.9922141682191784</v>
       </c>
       <c r="Q18">
-        <v>0.9998960965775443</v>
+        <v>0.9922141682191784</v>
       </c>
       <c r="R18">
-        <v>0.9999617048349723</v>
+        <v>0.9971637768493155</v>
       </c>
       <c r="S18">
-        <v>0.9999617048349723</v>
+        <v>0.9971637768493155</v>
       </c>
       <c r="T18">
-        <v>0.99998571191893</v>
+        <v>0.9989075380365299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000375061408892</v>
+        <v>0.9789464442105263</v>
       </c>
       <c r="D19">
-        <v>0.9985326710935722</v>
+        <v>1.005166715263158</v>
       </c>
       <c r="E19">
-        <v>1.000362259900161</v>
+        <v>0.9789464442105263</v>
       </c>
       <c r="F19">
-        <v>1.000375061408892</v>
+        <v>1.005317100526316</v>
       </c>
       <c r="G19">
-        <v>1.000963586469181</v>
+        <v>1.005273256842105</v>
       </c>
       <c r="H19">
-        <v>0.9991959288129899</v>
+        <v>0.9883857400000002</v>
       </c>
       <c r="I19">
-        <v>1.000365992608946</v>
+        <v>1.014207585263158</v>
       </c>
       <c r="J19">
-        <v>0.9985326710935722</v>
+        <v>1.005166715263158</v>
       </c>
       <c r="K19">
-        <v>1.000375061408892</v>
+        <v>1.005166715263158</v>
       </c>
       <c r="L19">
-        <v>1.000362259900161</v>
+        <v>1.005317100526316</v>
       </c>
       <c r="M19">
-        <v>0.9994474654968667</v>
+        <v>0.9921317723684211</v>
       </c>
       <c r="N19">
-        <v>0.9994474654968667</v>
+        <v>0.9921317723684211</v>
       </c>
       <c r="O19">
-        <v>0.9993636199355743</v>
+        <v>0.9908830949122809</v>
       </c>
       <c r="P19">
-        <v>0.9997566641342086</v>
+        <v>0.9964767533333333</v>
       </c>
       <c r="Q19">
-        <v>0.9997566641342086</v>
+        <v>0.9964767533333333</v>
       </c>
       <c r="R19">
-        <v>0.9999112634528795</v>
+        <v>0.9986492438157895</v>
       </c>
       <c r="S19">
-        <v>0.9999112634528795</v>
+        <v>0.9986492438157895</v>
       </c>
       <c r="T19">
-        <v>0.9999659167156238</v>
+        <v>0.9995494736842105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9789471784210527</v>
+      </c>
+      <c r="D20">
+        <v>1.005166524210526</v>
+      </c>
+      <c r="E20">
+        <v>0.9789471784210527</v>
+      </c>
+      <c r="F20">
+        <v>1.005316917894737</v>
+      </c>
+      <c r="G20">
+        <v>1.005273068421053</v>
+      </c>
+      <c r="H20">
+        <v>0.9883861500000001</v>
+      </c>
+      <c r="I20">
+        <v>1.014207098421053</v>
+      </c>
+      <c r="J20">
+        <v>1.005166524210526</v>
+      </c>
+      <c r="K20">
+        <v>1.005166524210526</v>
+      </c>
+      <c r="L20">
+        <v>1.005316917894737</v>
+      </c>
+      <c r="M20">
+        <v>0.9921320481578948</v>
+      </c>
+      <c r="N20">
+        <v>0.9921320481578948</v>
+      </c>
+      <c r="O20">
+        <v>0.9908834154385966</v>
+      </c>
+      <c r="P20">
+        <v>0.996476873508772</v>
+      </c>
+      <c r="Q20">
+        <v>0.9964768735087719</v>
+      </c>
+      <c r="R20">
+        <v>0.9986492861842104</v>
+      </c>
+      <c r="S20">
+        <v>0.9986492861842104</v>
+      </c>
+      <c r="T20">
+        <v>0.9995494895614035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.016192791675805</v>
+      </c>
+      <c r="D21">
+        <v>0.9961534253400083</v>
+      </c>
+      <c r="E21">
+        <v>1.016192791675805</v>
+      </c>
+      <c r="F21">
+        <v>0.9958397955921674</v>
+      </c>
+      <c r="G21">
+        <v>0.9959312205833203</v>
+      </c>
+      <c r="H21">
+        <v>1.008978614400679</v>
+      </c>
+      <c r="I21">
+        <v>0.9888463568737659</v>
+      </c>
+      <c r="J21">
+        <v>0.9961534253400083</v>
+      </c>
+      <c r="K21">
+        <v>0.9961534253400083</v>
+      </c>
+      <c r="L21">
+        <v>0.9958397955921674</v>
+      </c>
+      <c r="M21">
+        <v>1.006016293633986</v>
+      </c>
+      <c r="N21">
+        <v>1.006016293633986</v>
+      </c>
+      <c r="O21">
+        <v>1.007003733889551</v>
+      </c>
+      <c r="P21">
+        <v>1.002728670869327</v>
+      </c>
+      <c r="Q21">
+        <v>1.002728670869327</v>
+      </c>
+      <c r="R21">
+        <v>1.001084859486997</v>
+      </c>
+      <c r="S21">
+        <v>1.001084859486997</v>
+      </c>
+      <c r="T21">
+        <v>1.000323700744291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.004281246458286</v>
+      </c>
+      <c r="D22">
+        <v>0.9988435949106167</v>
+      </c>
+      <c r="E22">
+        <v>1.004281246458286</v>
+      </c>
+      <c r="F22">
+        <v>0.9989775219174646</v>
+      </c>
+      <c r="G22">
+        <v>0.9989384745812944</v>
+      </c>
+      <c r="H22">
+        <v>1.002323695021608</v>
+      </c>
+      <c r="I22">
+        <v>0.9972988951839029</v>
+      </c>
+      <c r="J22">
+        <v>0.9988435949106167</v>
+      </c>
+      <c r="K22">
+        <v>0.9988435949106167</v>
+      </c>
+      <c r="L22">
+        <v>0.9989775219174646</v>
+      </c>
+      <c r="M22">
+        <v>1.001629384187875</v>
+      </c>
+      <c r="N22">
+        <v>1.001629384187875</v>
+      </c>
+      <c r="O22">
+        <v>1.001860821132453</v>
+      </c>
+      <c r="P22">
+        <v>1.000700787762122</v>
+      </c>
+      <c r="Q22">
+        <v>1.000700787762122</v>
+      </c>
+      <c r="R22">
+        <v>1.000236489549246</v>
+      </c>
+      <c r="S22">
+        <v>1.000236489549246</v>
+      </c>
+      <c r="T22">
+        <v>1.000110571345529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.01619378562725</v>
+      </c>
+      <c r="D23">
+        <v>0.9961531790010327</v>
+      </c>
+      <c r="E23">
+        <v>1.01619378562725</v>
+      </c>
+      <c r="F23">
+        <v>0.9958395349337441</v>
+      </c>
+      <c r="G23">
+        <v>0.9959309795480384</v>
+      </c>
+      <c r="H23">
+        <v>1.008979166777253</v>
+      </c>
+      <c r="I23">
+        <v>0.9888456942407716</v>
+      </c>
+      <c r="J23">
+        <v>0.9961531790010327</v>
+      </c>
+      <c r="K23">
+        <v>0.9961531790010327</v>
+      </c>
+      <c r="L23">
+        <v>0.9958395349337441</v>
+      </c>
+      <c r="M23">
+        <v>1.006016660280497</v>
+      </c>
+      <c r="N23">
+        <v>1.006016660280497</v>
+      </c>
+      <c r="O23">
+        <v>1.007004162446083</v>
+      </c>
+      <c r="P23">
+        <v>1.002728833187342</v>
+      </c>
+      <c r="Q23">
+        <v>1.002728833187342</v>
+      </c>
+      <c r="R23">
+        <v>1.001084919640765</v>
+      </c>
+      <c r="S23">
+        <v>1.001084919640765</v>
+      </c>
+      <c r="T23">
+        <v>1.000323723354682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.004281512278193</v>
+      </c>
+      <c r="D24">
+        <v>0.9988435297029158</v>
+      </c>
+      <c r="E24">
+        <v>1.004281512278193</v>
+      </c>
+      <c r="F24">
+        <v>0.9989774543220438</v>
+      </c>
+      <c r="G24">
+        <v>0.9989384095331948</v>
+      </c>
+      <c r="H24">
+        <v>1.002323840243186</v>
+      </c>
+      <c r="I24">
+        <v>0.9972987184543197</v>
+      </c>
+      <c r="J24">
+        <v>0.9988435297029158</v>
+      </c>
+      <c r="K24">
+        <v>0.9988435297029158</v>
+      </c>
+      <c r="L24">
+        <v>0.9989774543220438</v>
+      </c>
+      <c r="M24">
+        <v>1.001629483300118</v>
+      </c>
+      <c r="N24">
+        <v>1.001629483300118</v>
+      </c>
+      <c r="O24">
+        <v>1.001860935614474</v>
+      </c>
+      <c r="P24">
+        <v>1.000700832101051</v>
+      </c>
+      <c r="Q24">
+        <v>1.000700832101051</v>
+      </c>
+      <c r="R24">
+        <v>1.000236506501517</v>
+      </c>
+      <c r="S24">
+        <v>1.000236506501517</v>
+      </c>
+      <c r="T24">
+        <v>1.000110577422309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.01619492679418</v>
+      </c>
+      <c r="D25">
+        <v>0.996152888321677</v>
+      </c>
+      <c r="E25">
+        <v>1.01619492679418</v>
+      </c>
+      <c r="F25">
+        <v>0.9958392520224109</v>
+      </c>
+      <c r="G25">
+        <v>0.9959306999953758</v>
+      </c>
+      <c r="H25">
+        <v>1.008979793231429</v>
+      </c>
+      <c r="I25">
+        <v>0.9888449498092367</v>
+      </c>
+      <c r="J25">
+        <v>0.996152888321677</v>
+      </c>
+      <c r="K25">
+        <v>0.996152888321677</v>
+      </c>
+      <c r="L25">
+        <v>0.9958392520224109</v>
+      </c>
+      <c r="M25">
+        <v>1.006017089408295</v>
+      </c>
+      <c r="N25">
+        <v>1.006017089408295</v>
+      </c>
+      <c r="O25">
+        <v>1.00700465734934</v>
+      </c>
+      <c r="P25">
+        <v>1.002729022379423</v>
+      </c>
+      <c r="Q25">
+        <v>1.002729022379423</v>
+      </c>
+      <c r="R25">
+        <v>1.001084988864986</v>
+      </c>
+      <c r="S25">
+        <v>1.001084988864986</v>
+      </c>
+      <c r="T25">
+        <v>1.000323751695718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.004281810876118</v>
+      </c>
+      <c r="D26">
+        <v>0.99884345410938</v>
+      </c>
+      <c r="E26">
+        <v>1.004281810876118</v>
+      </c>
+      <c r="F26">
+        <v>0.9989773791459985</v>
+      </c>
+      <c r="G26">
+        <v>0.998938338218297</v>
+      </c>
+      <c r="H26">
+        <v>1.002323998751224</v>
+      </c>
+      <c r="I26">
+        <v>0.9972985194880264</v>
+      </c>
+      <c r="J26">
+        <v>0.99884345410938</v>
+      </c>
+      <c r="K26">
+        <v>0.99884345410938</v>
+      </c>
+      <c r="L26">
+        <v>0.9989773791459985</v>
+      </c>
+      <c r="M26">
+        <v>1.001629595011058</v>
+      </c>
+      <c r="N26">
+        <v>1.001629595011058</v>
+      </c>
+      <c r="O26">
+        <v>1.001861062924447</v>
+      </c>
+      <c r="P26">
+        <v>1.000700881377165</v>
+      </c>
+      <c r="Q26">
+        <v>1.000700881377166</v>
+      </c>
+      <c r="R26">
+        <v>1.000236524560219</v>
+      </c>
+      <c r="S26">
+        <v>1.000236524560219</v>
+      </c>
+      <c r="T26">
+        <v>1.000110583431507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9925539063772421</v>
+      </c>
+      <c r="D27">
+        <v>1.001881455534052</v>
+      </c>
+      <c r="E27">
+        <v>0.9925539063772421</v>
+      </c>
+      <c r="F27">
+        <v>1.001850442307646</v>
+      </c>
+      <c r="G27">
+        <v>1.001859491230148</v>
+      </c>
+      <c r="H27">
+        <v>0.9959118183428716</v>
+      </c>
+      <c r="I27">
+        <v>1.004928643540075</v>
+      </c>
+      <c r="J27">
+        <v>1.001881455534052</v>
+      </c>
+      <c r="K27">
+        <v>1.001881455534052</v>
+      </c>
+      <c r="L27">
+        <v>1.001850442307646</v>
+      </c>
+      <c r="M27">
+        <v>0.9972021743424442</v>
+      </c>
+      <c r="N27">
+        <v>0.9972021743424442</v>
+      </c>
+      <c r="O27">
+        <v>0.99677205567592</v>
+      </c>
+      <c r="P27">
+        <v>0.9987619347396469</v>
+      </c>
+      <c r="Q27">
+        <v>0.9987619347396467</v>
+      </c>
+      <c r="R27">
+        <v>0.999541814938248</v>
+      </c>
+      <c r="S27">
+        <v>0.999541814938248</v>
+      </c>
+      <c r="T27">
+        <v>0.9998309595553391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001246529981111</v>
+      </c>
+      <c r="D28">
+        <v>0.9997469505385597</v>
+      </c>
+      <c r="E28">
+        <v>1.001246529981111</v>
+      </c>
+      <c r="F28">
+        <v>0.9996558233207971</v>
+      </c>
+      <c r="G28">
+        <v>0.9996823897907731</v>
+      </c>
+      <c r="H28">
+        <v>1.000706669955781</v>
+      </c>
+      <c r="I28">
+        <v>0.999064845438293</v>
+      </c>
+      <c r="J28">
+        <v>0.9997469505385597</v>
+      </c>
+      <c r="K28">
+        <v>0.9997469505385597</v>
+      </c>
+      <c r="L28">
+        <v>0.9996558233207971</v>
+      </c>
+      <c r="M28">
+        <v>1.000451176650954</v>
+      </c>
+      <c r="N28">
+        <v>1.000451176650954</v>
+      </c>
+      <c r="O28">
+        <v>1.000536341085897</v>
+      </c>
+      <c r="P28">
+        <v>1.000216434613489</v>
+      </c>
+      <c r="Q28">
+        <v>1.000216434613489</v>
+      </c>
+      <c r="R28">
+        <v>1.000099063594757</v>
+      </c>
+      <c r="S28">
+        <v>1.000099063594757</v>
+      </c>
+      <c r="T28">
+        <v>1.000017201504219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.023919199074918</v>
+      </c>
+      <c r="D29">
+        <v>0.9941006281428538</v>
+      </c>
+      <c r="E29">
+        <v>1.023919199074918</v>
+      </c>
+      <c r="F29">
+        <v>0.9939755201363758</v>
+      </c>
+      <c r="G29">
+        <v>0.9940119871320079</v>
+      </c>
+      <c r="H29">
+        <v>1.013184504542979</v>
+      </c>
+      <c r="I29">
+        <v>0.983910890930353</v>
+      </c>
+      <c r="J29">
+        <v>0.9941006281428538</v>
+      </c>
+      <c r="K29">
+        <v>0.9941006281428538</v>
+      </c>
+      <c r="L29">
+        <v>0.9939755201363758</v>
+      </c>
+      <c r="M29">
+        <v>1.008947359605647</v>
+      </c>
+      <c r="N29">
+        <v>1.008947359605647</v>
+      </c>
+      <c r="O29">
+        <v>1.010359741251424</v>
+      </c>
+      <c r="P29">
+        <v>1.003998449118049</v>
+      </c>
+      <c r="Q29">
+        <v>1.003998449118049</v>
+      </c>
+      <c r="R29">
+        <v>1.00152399387425</v>
+      </c>
+      <c r="S29">
+        <v>1.00152399387425</v>
+      </c>
+      <c r="T29">
+        <v>1.000517121659915</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9933250372925055</v>
+        <v>0.982283449949899</v>
       </c>
       <c r="D4">
-        <v>1.001690119761967</v>
+        <v>1.004341905799651</v>
       </c>
       <c r="E4">
-        <v>0.9933250372925055</v>
+        <v>0.982283449949899</v>
       </c>
       <c r="F4">
-        <v>1.001656866808929</v>
+        <v>1.004477599685333</v>
       </c>
       <c r="G4">
-        <v>1.001666559064383</v>
+        <v>1.004438038641642</v>
       </c>
       <c r="H4">
-        <v>0.9963364671124226</v>
+        <v>0.9902244938317223</v>
       </c>
       <c r="I4">
-        <v>1.004411972149264</v>
+        <v>1.011966116881022</v>
       </c>
       <c r="J4">
-        <v>1.001690119761967</v>
+        <v>1.004341905799651</v>
       </c>
       <c r="K4">
-        <v>1.001690119761967</v>
+        <v>1.004341905799651</v>
       </c>
       <c r="L4">
-        <v>1.001656866808929</v>
+        <v>1.004477599685333</v>
       </c>
       <c r="M4">
-        <v>0.9974909520507173</v>
+        <v>0.9933805248176162</v>
       </c>
       <c r="N4">
-        <v>0.9974909520507173</v>
+        <v>0.9933805248176162</v>
       </c>
       <c r="O4">
-        <v>0.9971061237379524</v>
+        <v>0.9923285144889848</v>
       </c>
       <c r="P4">
-        <v>0.998890674621134</v>
+        <v>0.9970343184782943</v>
       </c>
       <c r="Q4">
-        <v>0.998890674621134</v>
+        <v>0.9970343184782943</v>
       </c>
       <c r="R4">
-        <v>0.9995905359063424</v>
+        <v>0.9988612153086334</v>
       </c>
       <c r="S4">
-        <v>0.9995905359063424</v>
+        <v>0.9988612153086334</v>
       </c>
       <c r="T4">
-        <v>0.9998478370315785</v>
+        <v>0.9996219341315449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9788724654106628</v>
+        <v>0.9877769389850531</v>
       </c>
       <c r="D5">
-        <v>1.00518464595101</v>
+        <v>1.003010476454693</v>
       </c>
       <c r="E5">
-        <v>0.9788724654106628</v>
+        <v>0.9877769389850531</v>
       </c>
       <c r="F5">
-        <v>1.005335904625357</v>
+        <v>1.003080927444437</v>
       </c>
       <c r="G5">
-        <v>1.005291805576372</v>
+        <v>1.003060383958551</v>
       </c>
       <c r="H5">
-        <v>0.9883448500072065</v>
+        <v>0.9932610206827857</v>
       </c>
       <c r="I5">
-        <v>1.014257897226226</v>
+        <v>1.008229223149272</v>
       </c>
       <c r="J5">
-        <v>1.00518464595101</v>
+        <v>1.003010476454693</v>
       </c>
       <c r="K5">
-        <v>1.00518464595101</v>
+        <v>1.003010476454693</v>
       </c>
       <c r="L5">
-        <v>1.005335904625357</v>
+        <v>1.003080927444437</v>
       </c>
       <c r="M5">
-        <v>0.9921041850180099</v>
+        <v>0.995428933214745</v>
       </c>
       <c r="N5">
-        <v>0.9921041850180099</v>
+        <v>0.995428933214745</v>
       </c>
       <c r="O5">
-        <v>0.9908510733477421</v>
+        <v>0.9947062957040919</v>
       </c>
       <c r="P5">
-        <v>0.9964643386623434</v>
+        <v>0.9979561142947277</v>
       </c>
       <c r="Q5">
-        <v>0.9964643386623432</v>
+        <v>0.9979561142947279</v>
       </c>
       <c r="R5">
-        <v>0.99864441548451</v>
+        <v>0.9992197048347193</v>
       </c>
       <c r="S5">
-        <v>0.99864441548451</v>
+        <v>0.9992197048347193</v>
       </c>
       <c r="T5">
-        <v>0.9995479281328058</v>
+        <v>0.9997364951124653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9292360281937003</v>
+        <v>0.9933250372925055</v>
       </c>
       <c r="D6">
-        <v>1.01721129632422</v>
+        <v>1.001690119761967</v>
       </c>
       <c r="E6">
-        <v>0.9292360281937003</v>
+        <v>0.9933250372925055</v>
       </c>
       <c r="F6">
-        <v>1.017957486405194</v>
+        <v>1.001656866808929</v>
       </c>
       <c r="G6">
-        <v>1.017739930601213</v>
+        <v>1.001666559064383</v>
       </c>
       <c r="H6">
-        <v>0.960907119245351</v>
+        <v>0.9963364671124226</v>
       </c>
       <c r="I6">
-        <v>1.048028827930024</v>
+        <v>1.004411972149264</v>
       </c>
       <c r="J6">
-        <v>1.01721129632422</v>
+        <v>1.001690119761967</v>
       </c>
       <c r="K6">
-        <v>1.01721129632422</v>
+        <v>1.001690119761967</v>
       </c>
       <c r="L6">
-        <v>1.017957486405194</v>
+        <v>1.001656866808929</v>
       </c>
       <c r="M6">
-        <v>0.9735967572994471</v>
+        <v>0.9974909520507173</v>
       </c>
       <c r="N6">
-        <v>0.9735967572994471</v>
+        <v>0.9974909520507173</v>
       </c>
       <c r="O6">
-        <v>0.9693668779480817</v>
+        <v>0.9971061237379524</v>
       </c>
       <c r="P6">
-        <v>0.9881349369743715</v>
+        <v>0.998890674621134</v>
       </c>
       <c r="Q6">
-        <v>0.9881349369743715</v>
+        <v>0.998890674621134</v>
       </c>
       <c r="R6">
-        <v>0.9954040268118337</v>
+        <v>0.9995905359063424</v>
       </c>
       <c r="S6">
-        <v>0.9954040268118337</v>
+        <v>0.9995905359063424</v>
       </c>
       <c r="T6">
-        <v>0.9985134481166172</v>
+        <v>0.9998478370315785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.997779731588589</v>
+        <v>0.9788724654106628</v>
       </c>
       <c r="D7">
-        <v>1.000566375210649</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="E7">
-        <v>0.997779731588589</v>
+        <v>0.9788724654106628</v>
       </c>
       <c r="F7">
-        <v>1.000548787552965</v>
+        <v>1.005335904625357</v>
       </c>
       <c r="G7">
-        <v>1.0005539141017</v>
+        <v>1.005291805576372</v>
       </c>
       <c r="H7">
-        <v>0.9987829235572675</v>
+        <v>0.9883448500072065</v>
       </c>
       <c r="I7">
-        <v>1.001460075899733</v>
+        <v>1.014257897226226</v>
       </c>
       <c r="J7">
-        <v>1.000566375210649</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="K7">
-        <v>1.000566375210649</v>
+        <v>1.00518464595101</v>
       </c>
       <c r="L7">
-        <v>1.000548787552965</v>
+        <v>1.005335904625357</v>
       </c>
       <c r="M7">
-        <v>0.9991642595707771</v>
+        <v>0.9921041850180099</v>
       </c>
       <c r="N7">
-        <v>0.9991642595707771</v>
+        <v>0.9921041850180099</v>
       </c>
       <c r="O7">
-        <v>0.9990371475662739</v>
+        <v>0.9908510733477421</v>
       </c>
       <c r="P7">
-        <v>0.9996316314507344</v>
+        <v>0.9964643386623434</v>
       </c>
       <c r="Q7">
-        <v>0.9996316314507344</v>
+        <v>0.9964643386623432</v>
       </c>
       <c r="R7">
-        <v>0.999865317390713</v>
+        <v>0.99864441548451</v>
       </c>
       <c r="S7">
-        <v>0.999865317390713</v>
+        <v>0.99864441548451</v>
       </c>
       <c r="T7">
-        <v>0.9999486346518172</v>
+        <v>0.9995479281328058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998229840661341</v>
+        <v>0.9292360281937003</v>
       </c>
       <c r="D8">
-        <v>1.000044032291963</v>
+        <v>1.01721129632422</v>
       </c>
       <c r="E8">
-        <v>0.9998229840661341</v>
+        <v>0.9292360281937003</v>
       </c>
       <c r="F8">
-        <v>1.000044379076635</v>
+        <v>1.017957486405194</v>
       </c>
       <c r="G8">
-        <v>1.000044277443791</v>
+        <v>1.017739930601213</v>
       </c>
       <c r="H8">
-        <v>0.9999025616811347</v>
+        <v>0.960907119245351</v>
       </c>
       <c r="I8">
-        <v>1.000118405284319</v>
+        <v>1.048028827930024</v>
       </c>
       <c r="J8">
-        <v>1.000044032291963</v>
+        <v>1.01721129632422</v>
       </c>
       <c r="K8">
-        <v>1.000044032291963</v>
+        <v>1.01721129632422</v>
       </c>
       <c r="L8">
-        <v>1.000044379076635</v>
+        <v>1.017957486405194</v>
       </c>
       <c r="M8">
-        <v>0.9999336815713847</v>
+        <v>0.9735967572994471</v>
       </c>
       <c r="N8">
-        <v>0.9999336815713847</v>
+        <v>0.9735967572994471</v>
       </c>
       <c r="O8">
-        <v>0.9999233082746347</v>
+        <v>0.9693668779480817</v>
       </c>
       <c r="P8">
-        <v>0.9999704651449108</v>
+        <v>0.9881349369743715</v>
       </c>
       <c r="Q8">
-        <v>0.9999704651449108</v>
+        <v>0.9881349369743715</v>
       </c>
       <c r="R8">
-        <v>0.9999888569316739</v>
+        <v>0.9954040268118337</v>
       </c>
       <c r="S8">
-        <v>0.9999888569316739</v>
+        <v>0.9954040268118337</v>
       </c>
       <c r="T8">
-        <v>0.9999961066406629</v>
+        <v>0.9985134481166172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9960738555827247</v>
+        <v>0.997779731588589</v>
       </c>
       <c r="D9">
-        <v>1.00100215435149</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="E9">
-        <v>0.9960738555827247</v>
+        <v>0.997779731588589</v>
       </c>
       <c r="F9">
-        <v>1.000970083766126</v>
+        <v>1.000548787552965</v>
       </c>
       <c r="G9">
-        <v>1.000979431247661</v>
+        <v>1.0005539141017</v>
       </c>
       <c r="H9">
-        <v>0.997848041482815</v>
+        <v>0.9987829235572675</v>
       </c>
       <c r="I9">
-        <v>1.002580776279932</v>
+        <v>1.001460075899733</v>
       </c>
       <c r="J9">
-        <v>1.00100215435149</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="K9">
-        <v>1.00100215435149</v>
+        <v>1.000566375210649</v>
       </c>
       <c r="L9">
-        <v>1.000970083766126</v>
+        <v>1.000548787552965</v>
       </c>
       <c r="M9">
-        <v>0.9985219696744252</v>
+        <v>0.9991642595707771</v>
       </c>
       <c r="N9">
-        <v>0.9985219696744252</v>
+        <v>0.9991642595707771</v>
       </c>
       <c r="O9">
-        <v>0.9982973269438885</v>
+        <v>0.9990371475662739</v>
       </c>
       <c r="P9">
-        <v>0.9993486979001135</v>
+        <v>0.9996316314507344</v>
       </c>
       <c r="Q9">
-        <v>0.9993486979001135</v>
+        <v>0.9996316314507344</v>
       </c>
       <c r="R9">
-        <v>0.9997620620129577</v>
+        <v>0.999865317390713</v>
       </c>
       <c r="S9">
-        <v>0.9997620620129577</v>
+        <v>0.999865317390713</v>
       </c>
       <c r="T9">
-        <v>0.999909057118458</v>
+        <v>0.9999486346518172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9281884950456283</v>
+        <v>0.9998229840661341</v>
       </c>
       <c r="D10">
-        <v>1.01745822276095</v>
+        <v>1.000044032291963</v>
       </c>
       <c r="E10">
-        <v>0.9281884950456283</v>
+        <v>0.9998229840661341</v>
       </c>
       <c r="F10">
-        <v>1.018227677294778</v>
+        <v>1.000044379076635</v>
       </c>
       <c r="G10">
-        <v>1.018003339408839</v>
+        <v>1.000044277443791</v>
       </c>
       <c r="H10">
-        <v>0.960325592168311</v>
+        <v>0.9999025616811347</v>
       </c>
       <c r="I10">
-        <v>1.048753772800747</v>
+        <v>1.000118405284319</v>
       </c>
       <c r="J10">
-        <v>1.01745822276095</v>
+        <v>1.000044032291963</v>
       </c>
       <c r="K10">
-        <v>1.01745822276095</v>
+        <v>1.000044032291963</v>
       </c>
       <c r="L10">
-        <v>1.018227677294778</v>
+        <v>1.000044379076635</v>
       </c>
       <c r="M10">
-        <v>0.9732080861702032</v>
+        <v>0.9999336815713847</v>
       </c>
       <c r="N10">
-        <v>0.9732080861702032</v>
+        <v>0.9999336815713847</v>
       </c>
       <c r="O10">
-        <v>0.9689139215029058</v>
+        <v>0.9999233082746347</v>
       </c>
       <c r="P10">
-        <v>0.9879581317004521</v>
+        <v>0.9999704651449108</v>
       </c>
       <c r="Q10">
-        <v>0.9879581317004521</v>
+        <v>0.9999704651449108</v>
       </c>
       <c r="R10">
-        <v>0.9953331544655766</v>
+        <v>0.9999888569316739</v>
       </c>
       <c r="S10">
-        <v>0.9953331544655766</v>
+        <v>0.9999888569316739</v>
       </c>
       <c r="T10">
-        <v>0.9984928499132089</v>
+        <v>0.9999961066406629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9936966407655607</v>
+        <v>0.9960738555827247</v>
       </c>
       <c r="D11">
-        <v>1.001610969103307</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="E11">
-        <v>0.9936966407655607</v>
+        <v>0.9960738555827247</v>
       </c>
       <c r="F11">
-        <v>1.001556326774716</v>
+        <v>1.000970083766126</v>
       </c>
       <c r="G11">
-        <v>1.001572254999657</v>
+        <v>1.000979431247661</v>
       </c>
       <c r="H11">
-        <v>0.9965457991890155</v>
+        <v>0.997848041482815</v>
       </c>
       <c r="I11">
-        <v>1.004139790740426</v>
+        <v>1.002580776279932</v>
       </c>
       <c r="J11">
-        <v>1.001610969103307</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="K11">
-        <v>1.001610969103307</v>
+        <v>1.00100215435149</v>
       </c>
       <c r="L11">
-        <v>1.001556326774716</v>
+        <v>1.000970083766126</v>
       </c>
       <c r="M11">
-        <v>0.9976264837701383</v>
+        <v>0.9985219696744252</v>
       </c>
       <c r="N11">
-        <v>0.9976264837701383</v>
+        <v>0.9985219696744252</v>
       </c>
       <c r="O11">
-        <v>0.9972662555764308</v>
+        <v>0.9982973269438885</v>
       </c>
       <c r="P11">
-        <v>0.9989546455478613</v>
+        <v>0.9993486979001135</v>
       </c>
       <c r="Q11">
-        <v>0.9989546455478613</v>
+        <v>0.9993486979001135</v>
       </c>
       <c r="R11">
-        <v>0.9996187264367228</v>
+        <v>0.9997620620129577</v>
       </c>
       <c r="S11">
-        <v>0.9996187264367228</v>
+        <v>0.9997620620129577</v>
       </c>
       <c r="T11">
-        <v>0.9998536302621138</v>
+        <v>0.999909057118458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9784526099368408</v>
+        <v>0.9281884950456283</v>
       </c>
       <c r="D12">
-        <v>1.005235199673683</v>
+        <v>1.01745822276095</v>
       </c>
       <c r="E12">
-        <v>0.9784526099368408</v>
+        <v>0.9281884950456283</v>
       </c>
       <c r="F12">
-        <v>1.005471093599997</v>
+        <v>1.018227677294778</v>
       </c>
       <c r="G12">
-        <v>1.005402319957898</v>
+        <v>1.018003339408839</v>
       </c>
       <c r="H12">
-        <v>0.9880943428736852</v>
+        <v>0.960325592168311</v>
       </c>
       <c r="I12">
-        <v>1.014634531052633</v>
+        <v>1.048753772800747</v>
       </c>
       <c r="J12">
-        <v>1.005235199673683</v>
+        <v>1.01745822276095</v>
       </c>
       <c r="K12">
-        <v>1.005235199673683</v>
+        <v>1.01745822276095</v>
       </c>
       <c r="L12">
-        <v>1.005471093599997</v>
+        <v>1.018227677294778</v>
       </c>
       <c r="M12">
-        <v>0.991961851768419</v>
+        <v>0.9732080861702032</v>
       </c>
       <c r="N12">
-        <v>0.991961851768419</v>
+        <v>0.9732080861702032</v>
       </c>
       <c r="O12">
-        <v>0.9906726821368411</v>
+        <v>0.9689139215029058</v>
       </c>
       <c r="P12">
-        <v>0.9963863010701736</v>
+        <v>0.9879581317004521</v>
       </c>
       <c r="Q12">
-        <v>0.9963863010701736</v>
+        <v>0.9879581317004521</v>
       </c>
       <c r="R12">
-        <v>0.9985985257210509</v>
+        <v>0.9953331544655766</v>
       </c>
       <c r="S12">
-        <v>0.9985985257210509</v>
+        <v>0.9953331544655766</v>
       </c>
       <c r="T12">
-        <v>0.9995483495157895</v>
+        <v>0.9984928499132089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.014181884335376</v>
+        <v>0.9936966407655607</v>
       </c>
       <c r="D13">
-        <v>0.9964714707236452</v>
+        <v>1.001610969103307</v>
       </c>
       <c r="E13">
-        <v>1.014181884335376</v>
+        <v>0.9936966407655607</v>
       </c>
       <c r="F13">
-        <v>0.9964451151612861</v>
+        <v>1.001556326774716</v>
       </c>
       <c r="G13">
-        <v>0.9964527992716725</v>
+        <v>1.001572254999657</v>
       </c>
       <c r="H13">
-        <v>1.007806137701317</v>
+        <v>0.9965457991890155</v>
       </c>
       <c r="I13">
-        <v>0.9905152883122926</v>
+        <v>1.004139790740426</v>
       </c>
       <c r="J13">
-        <v>0.9964714707236452</v>
+        <v>1.001610969103307</v>
       </c>
       <c r="K13">
-        <v>0.9964714707236452</v>
+        <v>1.001610969103307</v>
       </c>
       <c r="L13">
-        <v>0.9964451151612861</v>
+        <v>1.001556326774716</v>
       </c>
       <c r="M13">
-        <v>1.005313499748331</v>
+        <v>0.9976264837701383</v>
       </c>
       <c r="N13">
-        <v>1.005313499748331</v>
+        <v>0.9976264837701383</v>
       </c>
       <c r="O13">
-        <v>1.006144379065993</v>
+        <v>0.9972662555764308</v>
       </c>
       <c r="P13">
-        <v>1.002366156740103</v>
+        <v>0.9989546455478613</v>
       </c>
       <c r="Q13">
-        <v>1.002366156740102</v>
+        <v>0.9989546455478613</v>
       </c>
       <c r="R13">
-        <v>1.000892485235988</v>
+        <v>0.9996187264367228</v>
       </c>
       <c r="S13">
-        <v>1.000892485235988</v>
+        <v>0.9996187264367228</v>
       </c>
       <c r="T13">
-        <v>1.000312115917598</v>
+        <v>0.9998536302621138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8759446600000014</v>
+        <v>0.9784526099368408</v>
       </c>
       <c r="D14">
-        <v>1.0301398</v>
+        <v>1.005235199673683</v>
       </c>
       <c r="E14">
-        <v>0.8759446600000014</v>
+        <v>0.9784526099368408</v>
       </c>
       <c r="F14">
-        <v>1.031499400000001</v>
+        <v>1.005471093599997</v>
       </c>
       <c r="G14">
-        <v>1.031103000000001</v>
+        <v>1.005402319957898</v>
       </c>
       <c r="H14">
-        <v>0.9314548999999992</v>
+        <v>0.9880943428736852</v>
       </c>
       <c r="I14">
-        <v>1.084257500000001</v>
+        <v>1.014634531052633</v>
       </c>
       <c r="J14">
-        <v>1.0301398</v>
+        <v>1.005235199673683</v>
       </c>
       <c r="K14">
-        <v>1.0301398</v>
+        <v>1.005235199673683</v>
       </c>
       <c r="L14">
-        <v>1.031499400000001</v>
+        <v>1.005471093599997</v>
       </c>
       <c r="M14">
-        <v>0.9537220300000011</v>
+        <v>0.991961851768419</v>
       </c>
       <c r="N14">
-        <v>0.9537220300000011</v>
+        <v>0.991961851768419</v>
       </c>
       <c r="O14">
-        <v>0.9462996533333339</v>
+        <v>0.9906726821368411</v>
       </c>
       <c r="P14">
-        <v>0.9791946200000009</v>
+        <v>0.9963863010701736</v>
       </c>
       <c r="Q14">
-        <v>0.9791946200000009</v>
+        <v>0.9963863010701736</v>
       </c>
       <c r="R14">
-        <v>0.9919309150000009</v>
+        <v>0.9985985257210509</v>
       </c>
       <c r="S14">
-        <v>0.9919309150000009</v>
+        <v>0.9985985257210509</v>
       </c>
       <c r="T14">
-        <v>0.9973998766666675</v>
+        <v>0.9995483495157895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.95304146</v>
+        <v>1.014181884335376</v>
       </c>
       <c r="D15">
-        <v>1.0120128</v>
+        <v>0.9964714707236452</v>
       </c>
       <c r="E15">
-        <v>0.95304146</v>
+        <v>1.014181884335376</v>
       </c>
       <c r="F15">
-        <v>1.0115879</v>
+        <v>0.9964451151612861</v>
       </c>
       <c r="G15">
-        <v>1.0117118</v>
+        <v>0.9964527992716725</v>
       </c>
       <c r="H15">
-        <v>0.97427114</v>
+        <v>1.007806137701317</v>
       </c>
       <c r="I15">
-        <v>1.0308201</v>
+        <v>0.9905152883122926</v>
       </c>
       <c r="J15">
-        <v>1.0120128</v>
+        <v>0.9964714707236452</v>
       </c>
       <c r="K15">
-        <v>1.0120128</v>
+        <v>0.9964714707236452</v>
       </c>
       <c r="L15">
-        <v>1.0115879</v>
+        <v>0.9964451151612861</v>
       </c>
       <c r="M15">
-        <v>0.98231468</v>
+        <v>1.005313499748331</v>
       </c>
       <c r="N15">
-        <v>0.98231468</v>
+        <v>1.005313499748331</v>
       </c>
       <c r="O15">
-        <v>0.9796334999999999</v>
+        <v>1.006144379065993</v>
       </c>
       <c r="P15">
-        <v>0.9922140533333333</v>
+        <v>1.002366156740103</v>
       </c>
       <c r="Q15">
-        <v>0.9922140533333333</v>
+        <v>1.002366156740102</v>
       </c>
       <c r="R15">
-        <v>0.99716374</v>
+        <v>1.000892485235988</v>
       </c>
       <c r="S15">
-        <v>0.99716374</v>
+        <v>1.000892485235988</v>
       </c>
       <c r="T15">
-        <v>0.9989075333333334</v>
+        <v>1.000312115917598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9530437</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="D16">
-        <v>1.0120122</v>
+        <v>1.0301398</v>
       </c>
       <c r="E16">
-        <v>0.9530437</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="F16">
-        <v>1.0115873</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="G16">
-        <v>1.0117112</v>
+        <v>1.031103000000001</v>
       </c>
       <c r="H16">
-        <v>0.97427237</v>
+        <v>0.9314548999999992</v>
       </c>
       <c r="I16">
-        <v>1.0308186</v>
+        <v>1.084257500000001</v>
       </c>
       <c r="J16">
-        <v>1.0120122</v>
+        <v>1.0301398</v>
       </c>
       <c r="K16">
-        <v>1.0120122</v>
+        <v>1.0301398</v>
       </c>
       <c r="L16">
-        <v>1.0115873</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="M16">
-        <v>0.9823155</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="N16">
-        <v>0.9823155</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="O16">
-        <v>0.9796344566666667</v>
+        <v>0.9462996533333339</v>
       </c>
       <c r="P16">
-        <v>0.9922143999999999</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="Q16">
-        <v>0.9922143999999999</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="R16">
-        <v>0.99716385</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="S16">
-        <v>0.99716385</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="T16">
-        <v>0.9989075616666665</v>
+        <v>0.9973998766666675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0362486</v>
+        <v>0.95304146</v>
       </c>
       <c r="D17">
-        <v>0.99065531</v>
+        <v>1.0120128</v>
       </c>
       <c r="E17">
-        <v>1.0362486</v>
+        <v>0.95304146</v>
       </c>
       <c r="F17">
-        <v>0.99109483</v>
+        <v>1.0115879</v>
       </c>
       <c r="G17">
-        <v>0.99096669</v>
+        <v>1.0117118</v>
       </c>
       <c r="H17">
-        <v>1.019835</v>
+        <v>0.97427114</v>
       </c>
       <c r="I17">
-        <v>0.9763365899999999</v>
+        <v>1.0308201</v>
       </c>
       <c r="J17">
-        <v>0.99065531</v>
+        <v>1.0120128</v>
       </c>
       <c r="K17">
-        <v>0.99065531</v>
+        <v>1.0120128</v>
       </c>
       <c r="L17">
-        <v>0.99109483</v>
+        <v>1.0115879</v>
       </c>
       <c r="M17">
-        <v>1.013671715</v>
+        <v>0.98231468</v>
       </c>
       <c r="N17">
-        <v>1.013671715</v>
+        <v>0.98231468</v>
       </c>
       <c r="O17">
-        <v>1.015726143333333</v>
+        <v>0.9796334999999999</v>
       </c>
       <c r="P17">
-        <v>1.00599958</v>
+        <v>0.9922140533333333</v>
       </c>
       <c r="Q17">
-        <v>1.00599958</v>
+        <v>0.9922140533333333</v>
       </c>
       <c r="R17">
-        <v>1.0021635125</v>
+        <v>0.99716374</v>
       </c>
       <c r="S17">
-        <v>1.0021635125</v>
+        <v>0.99716374</v>
       </c>
       <c r="T17">
-        <v>1.00085617</v>
+        <v>0.9989075333333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9530421991780824</v>
+        <v>0.9530437</v>
       </c>
       <c r="D18">
-        <v>1.012012602739726</v>
+        <v>1.0120122</v>
       </c>
       <c r="E18">
-        <v>0.9530421991780824</v>
+        <v>0.9530437</v>
       </c>
       <c r="F18">
-        <v>1.011587702739726</v>
+        <v>1.0115873</v>
       </c>
       <c r="G18">
-        <v>1.011711586301369</v>
+        <v>1.0117112</v>
       </c>
       <c r="H18">
-        <v>0.9742715441095892</v>
+        <v>0.97427237</v>
       </c>
       <c r="I18">
-        <v>1.030819593150685</v>
+        <v>1.0308186</v>
       </c>
       <c r="J18">
-        <v>1.012012602739726</v>
+        <v>1.0120122</v>
       </c>
       <c r="K18">
-        <v>1.012012602739726</v>
+        <v>1.0120122</v>
       </c>
       <c r="L18">
-        <v>1.011587702739726</v>
+        <v>1.0115873</v>
       </c>
       <c r="M18">
-        <v>0.9823149509589044</v>
+        <v>0.9823155</v>
       </c>
       <c r="N18">
-        <v>0.9823149509589044</v>
+        <v>0.9823155</v>
       </c>
       <c r="O18">
-        <v>0.9796338153424661</v>
+        <v>0.9796344566666667</v>
       </c>
       <c r="P18">
-        <v>0.9922141682191784</v>
+        <v>0.9922143999999999</v>
       </c>
       <c r="Q18">
-        <v>0.9922141682191784</v>
+        <v>0.9922143999999999</v>
       </c>
       <c r="R18">
-        <v>0.9971637768493155</v>
+        <v>0.99716385</v>
       </c>
       <c r="S18">
-        <v>0.9971637768493155</v>
+        <v>0.99716385</v>
       </c>
       <c r="T18">
-        <v>0.9989075380365299</v>
+        <v>0.9989075616666665</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9789464442105263</v>
+        <v>1.0362486</v>
       </c>
       <c r="D19">
-        <v>1.005166715263158</v>
+        <v>0.99065531</v>
       </c>
       <c r="E19">
-        <v>0.9789464442105263</v>
+        <v>1.0362486</v>
       </c>
       <c r="F19">
-        <v>1.005317100526316</v>
+        <v>0.99109483</v>
       </c>
       <c r="G19">
-        <v>1.005273256842105</v>
+        <v>0.99096669</v>
       </c>
       <c r="H19">
-        <v>0.9883857400000002</v>
+        <v>1.019835</v>
       </c>
       <c r="I19">
-        <v>1.014207585263158</v>
+        <v>0.9763365899999999</v>
       </c>
       <c r="J19">
-        <v>1.005166715263158</v>
+        <v>0.99065531</v>
       </c>
       <c r="K19">
-        <v>1.005166715263158</v>
+        <v>0.99065531</v>
       </c>
       <c r="L19">
-        <v>1.005317100526316</v>
+        <v>0.99109483</v>
       </c>
       <c r="M19">
-        <v>0.9921317723684211</v>
+        <v>1.013671715</v>
       </c>
       <c r="N19">
-        <v>0.9921317723684211</v>
+        <v>1.013671715</v>
       </c>
       <c r="O19">
-        <v>0.9908830949122809</v>
+        <v>1.015726143333333</v>
       </c>
       <c r="P19">
-        <v>0.9964767533333333</v>
+        <v>1.00599958</v>
       </c>
       <c r="Q19">
-        <v>0.9964767533333333</v>
+        <v>1.00599958</v>
       </c>
       <c r="R19">
-        <v>0.9986492438157895</v>
+        <v>1.0021635125</v>
       </c>
       <c r="S19">
-        <v>0.9986492438157895</v>
+        <v>1.0021635125</v>
       </c>
       <c r="T19">
-        <v>0.9995494736842105</v>
+        <v>1.00085617</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9789471784210527</v>
+        <v>0.9530421991780824</v>
       </c>
       <c r="D20">
-        <v>1.005166524210526</v>
+        <v>1.012012602739726</v>
       </c>
       <c r="E20">
-        <v>0.9789471784210527</v>
+        <v>0.9530421991780824</v>
       </c>
       <c r="F20">
-        <v>1.005316917894737</v>
+        <v>1.011587702739726</v>
       </c>
       <c r="G20">
-        <v>1.005273068421053</v>
+        <v>1.011711586301369</v>
       </c>
       <c r="H20">
-        <v>0.9883861500000001</v>
+        <v>0.9742715441095892</v>
       </c>
       <c r="I20">
-        <v>1.014207098421053</v>
+        <v>1.030819593150685</v>
       </c>
       <c r="J20">
-        <v>1.005166524210526</v>
+        <v>1.012012602739726</v>
       </c>
       <c r="K20">
-        <v>1.005166524210526</v>
+        <v>1.012012602739726</v>
       </c>
       <c r="L20">
-        <v>1.005316917894737</v>
+        <v>1.011587702739726</v>
       </c>
       <c r="M20">
-        <v>0.9921320481578948</v>
+        <v>0.9823149509589044</v>
       </c>
       <c r="N20">
-        <v>0.9921320481578948</v>
+        <v>0.9823149509589044</v>
       </c>
       <c r="O20">
-        <v>0.9908834154385966</v>
+        <v>0.9796338153424661</v>
       </c>
       <c r="P20">
-        <v>0.996476873508772</v>
+        <v>0.9922141682191784</v>
       </c>
       <c r="Q20">
-        <v>0.9964768735087719</v>
+        <v>0.9922141682191784</v>
       </c>
       <c r="R20">
-        <v>0.9986492861842104</v>
+        <v>0.9971637768493155</v>
       </c>
       <c r="S20">
-        <v>0.9986492861842104</v>
+        <v>0.9971637768493155</v>
       </c>
       <c r="T20">
-        <v>0.9995494895614035</v>
+        <v>0.9989075380365299</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.016192791675805</v>
+        <v>0.9789464442105263</v>
       </c>
       <c r="D21">
-        <v>0.9961534253400083</v>
+        <v>1.005166715263158</v>
       </c>
       <c r="E21">
-        <v>1.016192791675805</v>
+        <v>0.9789464442105263</v>
       </c>
       <c r="F21">
-        <v>0.9958397955921674</v>
+        <v>1.005317100526316</v>
       </c>
       <c r="G21">
-        <v>0.9959312205833203</v>
+        <v>1.005273256842105</v>
       </c>
       <c r="H21">
-        <v>1.008978614400679</v>
+        <v>0.9883857400000002</v>
       </c>
       <c r="I21">
-        <v>0.9888463568737659</v>
+        <v>1.014207585263158</v>
       </c>
       <c r="J21">
-        <v>0.9961534253400083</v>
+        <v>1.005166715263158</v>
       </c>
       <c r="K21">
-        <v>0.9961534253400083</v>
+        <v>1.005166715263158</v>
       </c>
       <c r="L21">
-        <v>0.9958397955921674</v>
+        <v>1.005317100526316</v>
       </c>
       <c r="M21">
-        <v>1.006016293633986</v>
+        <v>0.9921317723684211</v>
       </c>
       <c r="N21">
-        <v>1.006016293633986</v>
+        <v>0.9921317723684211</v>
       </c>
       <c r="O21">
-        <v>1.007003733889551</v>
+        <v>0.9908830949122809</v>
       </c>
       <c r="P21">
-        <v>1.002728670869327</v>
+        <v>0.9964767533333333</v>
       </c>
       <c r="Q21">
-        <v>1.002728670869327</v>
+        <v>0.9964767533333333</v>
       </c>
       <c r="R21">
-        <v>1.001084859486997</v>
+        <v>0.9986492438157895</v>
       </c>
       <c r="S21">
-        <v>1.001084859486997</v>
+        <v>0.9986492438157895</v>
       </c>
       <c r="T21">
-        <v>1.000323700744291</v>
+        <v>0.9995494736842105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.004281246458286</v>
+        <v>0.9789471784210527</v>
       </c>
       <c r="D22">
-        <v>0.9988435949106167</v>
+        <v>1.005166524210526</v>
       </c>
       <c r="E22">
-        <v>1.004281246458286</v>
+        <v>0.9789471784210527</v>
       </c>
       <c r="F22">
-        <v>0.9989775219174646</v>
+        <v>1.005316917894737</v>
       </c>
       <c r="G22">
-        <v>0.9989384745812944</v>
+        <v>1.005273068421053</v>
       </c>
       <c r="H22">
-        <v>1.002323695021608</v>
+        <v>0.9883861500000001</v>
       </c>
       <c r="I22">
-        <v>0.9972988951839029</v>
+        <v>1.014207098421053</v>
       </c>
       <c r="J22">
-        <v>0.9988435949106167</v>
+        <v>1.005166524210526</v>
       </c>
       <c r="K22">
-        <v>0.9988435949106167</v>
+        <v>1.005166524210526</v>
       </c>
       <c r="L22">
-        <v>0.9989775219174646</v>
+        <v>1.005316917894737</v>
       </c>
       <c r="M22">
-        <v>1.001629384187875</v>
+        <v>0.9921320481578948</v>
       </c>
       <c r="N22">
-        <v>1.001629384187875</v>
+        <v>0.9921320481578948</v>
       </c>
       <c r="O22">
-        <v>1.001860821132453</v>
+        <v>0.9908834154385966</v>
       </c>
       <c r="P22">
-        <v>1.000700787762122</v>
+        <v>0.996476873508772</v>
       </c>
       <c r="Q22">
-        <v>1.000700787762122</v>
+        <v>0.9964768735087719</v>
       </c>
       <c r="R22">
-        <v>1.000236489549246</v>
+        <v>0.9986492861842104</v>
       </c>
       <c r="S22">
-        <v>1.000236489549246</v>
+        <v>0.9986492861842104</v>
       </c>
       <c r="T22">
-        <v>1.000110571345529</v>
+        <v>0.9995494895614035</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.01619378562725</v>
+        <v>1.016192791675805</v>
       </c>
       <c r="D23">
-        <v>0.9961531790010327</v>
+        <v>0.9961534253400083</v>
       </c>
       <c r="E23">
-        <v>1.01619378562725</v>
+        <v>1.016192791675805</v>
       </c>
       <c r="F23">
-        <v>0.9958395349337441</v>
+        <v>0.9958397955921674</v>
       </c>
       <c r="G23">
-        <v>0.9959309795480384</v>
+        <v>0.9959312205833203</v>
       </c>
       <c r="H23">
-        <v>1.008979166777253</v>
+        <v>1.008978614400679</v>
       </c>
       <c r="I23">
-        <v>0.9888456942407716</v>
+        <v>0.9888463568737659</v>
       </c>
       <c r="J23">
-        <v>0.9961531790010327</v>
+        <v>0.9961534253400083</v>
       </c>
       <c r="K23">
-        <v>0.9961531790010327</v>
+        <v>0.9961534253400083</v>
       </c>
       <c r="L23">
-        <v>0.9958395349337441</v>
+        <v>0.9958397955921674</v>
       </c>
       <c r="M23">
-        <v>1.006016660280497</v>
+        <v>1.006016293633986</v>
       </c>
       <c r="N23">
-        <v>1.006016660280497</v>
+        <v>1.006016293633986</v>
       </c>
       <c r="O23">
-        <v>1.007004162446083</v>
+        <v>1.007003733889551</v>
       </c>
       <c r="P23">
-        <v>1.002728833187342</v>
+        <v>1.002728670869327</v>
       </c>
       <c r="Q23">
-        <v>1.002728833187342</v>
+        <v>1.002728670869327</v>
       </c>
       <c r="R23">
-        <v>1.001084919640765</v>
+        <v>1.001084859486997</v>
       </c>
       <c r="S23">
-        <v>1.001084919640765</v>
+        <v>1.001084859486997</v>
       </c>
       <c r="T23">
-        <v>1.000323723354682</v>
+        <v>1.000323700744291</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.004281512278193</v>
+        <v>1.004281246458286</v>
       </c>
       <c r="D24">
-        <v>0.9988435297029158</v>
+        <v>0.9988435949106167</v>
       </c>
       <c r="E24">
-        <v>1.004281512278193</v>
+        <v>1.004281246458286</v>
       </c>
       <c r="F24">
-        <v>0.9989774543220438</v>
+        <v>0.9989775219174646</v>
       </c>
       <c r="G24">
-        <v>0.9989384095331948</v>
+        <v>0.9989384745812944</v>
       </c>
       <c r="H24">
-        <v>1.002323840243186</v>
+        <v>1.002323695021608</v>
       </c>
       <c r="I24">
-        <v>0.9972987184543197</v>
+        <v>0.9972988951839029</v>
       </c>
       <c r="J24">
-        <v>0.9988435297029158</v>
+        <v>0.9988435949106167</v>
       </c>
       <c r="K24">
-        <v>0.9988435297029158</v>
+        <v>0.9988435949106167</v>
       </c>
       <c r="L24">
-        <v>0.9989774543220438</v>
+        <v>0.9989775219174646</v>
       </c>
       <c r="M24">
-        <v>1.001629483300118</v>
+        <v>1.001629384187875</v>
       </c>
       <c r="N24">
-        <v>1.001629483300118</v>
+        <v>1.001629384187875</v>
       </c>
       <c r="O24">
-        <v>1.001860935614474</v>
+        <v>1.001860821132453</v>
       </c>
       <c r="P24">
-        <v>1.000700832101051</v>
+        <v>1.000700787762122</v>
       </c>
       <c r="Q24">
-        <v>1.000700832101051</v>
+        <v>1.000700787762122</v>
       </c>
       <c r="R24">
-        <v>1.000236506501517</v>
+        <v>1.000236489549246</v>
       </c>
       <c r="S24">
-        <v>1.000236506501517</v>
+        <v>1.000236489549246</v>
       </c>
       <c r="T24">
-        <v>1.000110577422309</v>
+        <v>1.000110571345529</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.01619492679418</v>
+        <v>1.01619378562725</v>
       </c>
       <c r="D25">
-        <v>0.996152888321677</v>
+        <v>0.9961531790010327</v>
       </c>
       <c r="E25">
-        <v>1.01619492679418</v>
+        <v>1.01619378562725</v>
       </c>
       <c r="F25">
-        <v>0.9958392520224109</v>
+        <v>0.9958395349337441</v>
       </c>
       <c r="G25">
-        <v>0.9959306999953758</v>
+        <v>0.9959309795480384</v>
       </c>
       <c r="H25">
-        <v>1.008979793231429</v>
+        <v>1.008979166777253</v>
       </c>
       <c r="I25">
-        <v>0.9888449498092367</v>
+        <v>0.9888456942407716</v>
       </c>
       <c r="J25">
-        <v>0.996152888321677</v>
+        <v>0.9961531790010327</v>
       </c>
       <c r="K25">
-        <v>0.996152888321677</v>
+        <v>0.9961531790010327</v>
       </c>
       <c r="L25">
-        <v>0.9958392520224109</v>
+        <v>0.9958395349337441</v>
       </c>
       <c r="M25">
-        <v>1.006017089408295</v>
+        <v>1.006016660280497</v>
       </c>
       <c r="N25">
-        <v>1.006017089408295</v>
+        <v>1.006016660280497</v>
       </c>
       <c r="O25">
-        <v>1.00700465734934</v>
+        <v>1.007004162446083</v>
       </c>
       <c r="P25">
-        <v>1.002729022379423</v>
+        <v>1.002728833187342</v>
       </c>
       <c r="Q25">
-        <v>1.002729022379423</v>
+        <v>1.002728833187342</v>
       </c>
       <c r="R25">
-        <v>1.001084988864986</v>
+        <v>1.001084919640765</v>
       </c>
       <c r="S25">
-        <v>1.001084988864986</v>
+        <v>1.001084919640765</v>
       </c>
       <c r="T25">
-        <v>1.000323751695718</v>
+        <v>1.000323723354682</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.004281810876118</v>
+        <v>1.004281512278193</v>
       </c>
       <c r="D26">
-        <v>0.99884345410938</v>
+        <v>0.9988435297029158</v>
       </c>
       <c r="E26">
-        <v>1.004281810876118</v>
+        <v>1.004281512278193</v>
       </c>
       <c r="F26">
-        <v>0.9989773791459985</v>
+        <v>0.9989774543220438</v>
       </c>
       <c r="G26">
-        <v>0.998938338218297</v>
+        <v>0.9989384095331948</v>
       </c>
       <c r="H26">
-        <v>1.002323998751224</v>
+        <v>1.002323840243186</v>
       </c>
       <c r="I26">
-        <v>0.9972985194880264</v>
+        <v>0.9972987184543197</v>
       </c>
       <c r="J26">
-        <v>0.99884345410938</v>
+        <v>0.9988435297029158</v>
       </c>
       <c r="K26">
-        <v>0.99884345410938</v>
+        <v>0.9988435297029158</v>
       </c>
       <c r="L26">
-        <v>0.9989773791459985</v>
+        <v>0.9989774543220438</v>
       </c>
       <c r="M26">
-        <v>1.001629595011058</v>
+        <v>1.001629483300118</v>
       </c>
       <c r="N26">
-        <v>1.001629595011058</v>
+        <v>1.001629483300118</v>
       </c>
       <c r="O26">
-        <v>1.001861062924447</v>
+        <v>1.001860935614474</v>
       </c>
       <c r="P26">
-        <v>1.000700881377165</v>
+        <v>1.000700832101051</v>
       </c>
       <c r="Q26">
-        <v>1.000700881377166</v>
+        <v>1.000700832101051</v>
       </c>
       <c r="R26">
-        <v>1.000236524560219</v>
+        <v>1.000236506501517</v>
       </c>
       <c r="S26">
-        <v>1.000236524560219</v>
+        <v>1.000236506501517</v>
       </c>
       <c r="T26">
-        <v>1.000110583431507</v>
+        <v>1.000110577422309</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9925539063772421</v>
+        <v>1.01619492679418</v>
       </c>
       <c r="D27">
-        <v>1.001881455534052</v>
+        <v>0.996152888321677</v>
       </c>
       <c r="E27">
-        <v>0.9925539063772421</v>
+        <v>1.01619492679418</v>
       </c>
       <c r="F27">
-        <v>1.001850442307646</v>
+        <v>0.9958392520224109</v>
       </c>
       <c r="G27">
-        <v>1.001859491230148</v>
+        <v>0.9959306999953758</v>
       </c>
       <c r="H27">
-        <v>0.9959118183428716</v>
+        <v>1.008979793231429</v>
       </c>
       <c r="I27">
-        <v>1.004928643540075</v>
+        <v>0.9888449498092367</v>
       </c>
       <c r="J27">
-        <v>1.001881455534052</v>
+        <v>0.996152888321677</v>
       </c>
       <c r="K27">
-        <v>1.001881455534052</v>
+        <v>0.996152888321677</v>
       </c>
       <c r="L27">
-        <v>1.001850442307646</v>
+        <v>0.9958392520224109</v>
       </c>
       <c r="M27">
-        <v>0.9972021743424442</v>
+        <v>1.006017089408295</v>
       </c>
       <c r="N27">
-        <v>0.9972021743424442</v>
+        <v>1.006017089408295</v>
       </c>
       <c r="O27">
-        <v>0.99677205567592</v>
+        <v>1.00700465734934</v>
       </c>
       <c r="P27">
-        <v>0.9987619347396469</v>
+        <v>1.002729022379423</v>
       </c>
       <c r="Q27">
-        <v>0.9987619347396467</v>
+        <v>1.002729022379423</v>
       </c>
       <c r="R27">
-        <v>0.999541814938248</v>
+        <v>1.001084988864986</v>
       </c>
       <c r="S27">
-        <v>0.999541814938248</v>
+        <v>1.001084988864986</v>
       </c>
       <c r="T27">
-        <v>0.9998309595553391</v>
+        <v>1.000323751695718</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001246529981111</v>
+        <v>1.004281810876118</v>
       </c>
       <c r="D28">
-        <v>0.9997469505385597</v>
+        <v>0.99884345410938</v>
       </c>
       <c r="E28">
-        <v>1.001246529981111</v>
+        <v>1.004281810876118</v>
       </c>
       <c r="F28">
-        <v>0.9996558233207971</v>
+        <v>0.9989773791459985</v>
       </c>
       <c r="G28">
-        <v>0.9996823897907731</v>
+        <v>0.998938338218297</v>
       </c>
       <c r="H28">
-        <v>1.000706669955781</v>
+        <v>1.002323998751224</v>
       </c>
       <c r="I28">
-        <v>0.999064845438293</v>
+        <v>0.9972985194880264</v>
       </c>
       <c r="J28">
-        <v>0.9997469505385597</v>
+        <v>0.99884345410938</v>
       </c>
       <c r="K28">
-        <v>0.9997469505385597</v>
+        <v>0.99884345410938</v>
       </c>
       <c r="L28">
-        <v>0.9996558233207971</v>
+        <v>0.9989773791459985</v>
       </c>
       <c r="M28">
-        <v>1.000451176650954</v>
+        <v>1.001629595011058</v>
       </c>
       <c r="N28">
-        <v>1.000451176650954</v>
+        <v>1.001629595011058</v>
       </c>
       <c r="O28">
-        <v>1.000536341085897</v>
+        <v>1.001861062924447</v>
       </c>
       <c r="P28">
-        <v>1.000216434613489</v>
+        <v>1.000700881377165</v>
       </c>
       <c r="Q28">
-        <v>1.000216434613489</v>
+        <v>1.000700881377166</v>
       </c>
       <c r="R28">
-        <v>1.000099063594757</v>
+        <v>1.000236524560219</v>
       </c>
       <c r="S28">
-        <v>1.000099063594757</v>
+        <v>1.000236524560219</v>
       </c>
       <c r="T28">
-        <v>1.000017201504219</v>
+        <v>1.000110583431507</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9925539063772421</v>
+      </c>
+      <c r="D29">
+        <v>1.001881455534052</v>
+      </c>
+      <c r="E29">
+        <v>0.9925539063772421</v>
+      </c>
+      <c r="F29">
+        <v>1.001850442307646</v>
+      </c>
+      <c r="G29">
+        <v>1.001859491230148</v>
+      </c>
+      <c r="H29">
+        <v>0.9959118183428716</v>
+      </c>
+      <c r="I29">
+        <v>1.004928643540075</v>
+      </c>
+      <c r="J29">
+        <v>1.001881455534052</v>
+      </c>
+      <c r="K29">
+        <v>1.001881455534052</v>
+      </c>
+      <c r="L29">
+        <v>1.001850442307646</v>
+      </c>
+      <c r="M29">
+        <v>0.9972021743424442</v>
+      </c>
+      <c r="N29">
+        <v>0.9972021743424442</v>
+      </c>
+      <c r="O29">
+        <v>0.99677205567592</v>
+      </c>
+      <c r="P29">
+        <v>0.9987619347396469</v>
+      </c>
+      <c r="Q29">
+        <v>0.9987619347396467</v>
+      </c>
+      <c r="R29">
+        <v>0.999541814938248</v>
+      </c>
+      <c r="S29">
+        <v>0.999541814938248</v>
+      </c>
+      <c r="T29">
+        <v>0.9998309595553391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001246529981111</v>
+      </c>
+      <c r="D30">
+        <v>0.9997469505385597</v>
+      </c>
+      <c r="E30">
+        <v>1.001246529981111</v>
+      </c>
+      <c r="F30">
+        <v>0.9996558233207971</v>
+      </c>
+      <c r="G30">
+        <v>0.9996823897907731</v>
+      </c>
+      <c r="H30">
+        <v>1.000706669955781</v>
+      </c>
+      <c r="I30">
+        <v>0.999064845438293</v>
+      </c>
+      <c r="J30">
+        <v>0.9997469505385597</v>
+      </c>
+      <c r="K30">
+        <v>0.9997469505385597</v>
+      </c>
+      <c r="L30">
+        <v>0.9996558233207971</v>
+      </c>
+      <c r="M30">
+        <v>1.000451176650954</v>
+      </c>
+      <c r="N30">
+        <v>1.000451176650954</v>
+      </c>
+      <c r="O30">
+        <v>1.000536341085897</v>
+      </c>
+      <c r="P30">
+        <v>1.000216434613489</v>
+      </c>
+      <c r="Q30">
+        <v>1.000216434613489</v>
+      </c>
+      <c r="R30">
+        <v>1.000099063594757</v>
+      </c>
+      <c r="S30">
+        <v>1.000099063594757</v>
+      </c>
+      <c r="T30">
+        <v>1.000017201504219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.023919199074918</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9941006281428538</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.023919199074918</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9939755201363758</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9940119871320079</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.013184504542979</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.983910890930353</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9941006281428538</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9941006281428538</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9939755201363758</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.008947359605647</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.008947359605647</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.010359741251424</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.003998449118049</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.003998449118049</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00152399387425</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00152399387425</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000517121659915</v>
       </c>
     </row>
